--- a/Filtered_By_Region/CAR/CAR_LMS.xlsx
+++ b/Filtered_By_Region/CAR/CAR_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE64"/>
+  <dimension ref="A1:BI64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,6 +724,26 @@
           <t>STATUS.1</t>
         </is>
       </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -781,10 +802,10 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44693</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44663</v>
       </c>
       <c r="Q2" t="n">
@@ -795,19 +816,19 @@
           <t>CAR-ABRA-2021-07</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X2" t="inlineStr">
@@ -883,19 +904,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
@@ -962,10 +975,10 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>44713</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44632</v>
       </c>
       <c r="Q3" t="n">
@@ -976,19 +989,19 @@
           <t>CAR-ABRA-2021-09</t>
         </is>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X3" t="inlineStr">
@@ -1067,18 +1080,11 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
@@ -1145,10 +1151,10 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>44723</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="Q4" t="n">
@@ -1159,19 +1165,19 @@
           <t>CAR-ABRA-2021-10</t>
         </is>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X4" t="inlineStr">
@@ -1247,19 +1253,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
@@ -1326,10 +1324,10 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44632</v>
       </c>
       <c r="Q5" t="n">
@@ -1340,19 +1338,19 @@
           <t>CAR-ABRA-2021-08</t>
         </is>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X5" t="inlineStr">
@@ -1428,19 +1426,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
@@ -1626,18 +1616,11 @@
       <c r="AU6" t="n">
         <v>1</v>
       </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1679,7 +1662,6 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>2</v>
       </c>
@@ -1688,7 +1670,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1819,18 +1800,11 @@
       <c r="AU7" t="n">
         <v>1</v>
       </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -2012,18 +1986,11 @@
       <c r="AU8" t="n">
         <v>1</v>
       </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2049,7 +2016,6 @@
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Lubo-ong ES- Extension</t>
@@ -2104,13 +2070,13 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="V9" t="inlineStr">
@@ -2192,19 +2158,11 @@
       <c r="AT9" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
@@ -2230,7 +2188,6 @@
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Jolowon ES-Annex</t>
@@ -2285,13 +2242,13 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="V10" t="inlineStr">
@@ -2381,17 +2338,11 @@
       <c r="AV10" t="n">
         <v>1</v>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>0</v>
       </c>
@@ -2570,19 +2521,11 @@
       <c r="AT11" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
@@ -2759,19 +2702,11 @@
       <c r="AT12" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2813,7 +2748,6 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>2</v>
       </c>
@@ -2822,7 +2756,6 @@
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -2944,19 +2877,11 @@
       <c r="AT13" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -3135,19 +3060,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3189,7 +3106,6 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>2</v>
       </c>
@@ -3198,7 +3114,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM,WATER SYSTEM, &amp; SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -3322,19 +3237,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3516,18 +3423,11 @@
       <c r="AU16" t="n">
         <v>1</v>
       </c>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
@@ -3610,13 +3510,13 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="V17" t="inlineStr">
@@ -3703,18 +3603,11 @@
       <c r="AU17" t="n">
         <v>1</v>
       </c>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>0</v>
       </c>
@@ -3888,20 +3781,12 @@
       <c r="AS18" t="n">
         <v>0</v>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
       </c>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>1</v>
       </c>
@@ -4075,20 +3960,12 @@
       <c r="AS19" t="n">
         <v>0</v>
       </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>1</v>
       </c>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
@@ -4262,20 +4139,12 @@
       <c r="AS20" t="n">
         <v>0</v>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>1</v>
       </c>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>1</v>
       </c>
@@ -4449,20 +4318,12 @@
       <c r="AS21" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="n">
         <v>0</v>
       </c>
       <c r="AW21" t="n">
         <v>1</v>
       </c>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>1</v>
       </c>
@@ -4636,20 +4497,12 @@
       <c r="AS22" t="n">
         <v>0</v>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
       <c r="AW22" t="n">
         <v>1</v>
       </c>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4823,20 +4676,12 @@
       <c r="AS23" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="n">
         <v>0</v>
       </c>
       <c r="AW23" t="n">
         <v>1</v>
       </c>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -5010,20 +4855,12 @@
       <c r="AS24" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -5090,10 +4927,10 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5106,7 +4943,7 @@
           <t>CAR-ABRA-2022-04-002</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>44645</v>
       </c>
       <c r="T25" t="inlineStr">
@@ -5200,21 +5037,14 @@
       <c r="AT25" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="n">
         <v>1</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>0</v>
       </c>
@@ -5281,10 +5111,10 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5393,23 +5223,17 @@
       <c r="AT26" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="n">
         <v>0</v>
       </c>
       <c r="AW26" t="n">
         <v>1</v>
       </c>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="n">
         <v>0</v>
       </c>
@@ -5476,10 +5300,10 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="Q27" t="inlineStr">
@@ -5492,7 +5316,7 @@
           <t>CAR-ABRA-2022-04-001</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>44645</v>
       </c>
       <c r="T27" t="inlineStr">
@@ -5586,21 +5410,14 @@
       <c r="AT27" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="n">
         <v>1</v>
       </c>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
         <v>0</v>
       </c>
@@ -5703,7 +5520,7 @@
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>44813</v>
       </c>
       <c r="W28" t="inlineStr">
@@ -5782,21 +5599,14 @@
       <c r="AT28" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="n">
         <v>1</v>
       </c>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="n">
         <v>1</v>
       </c>
@@ -5863,10 +5673,10 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="3" t="n">
         <v>45159</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5894,7 +5704,7 @@
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>44813</v>
       </c>
       <c r="W29" t="inlineStr">
@@ -5973,21 +5783,14 @@
       <c r="AT29" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="n">
         <v>1</v>
       </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="n">
         <v>1</v>
       </c>
@@ -6054,10 +5857,10 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="Q30" t="inlineStr">
@@ -6085,10 +5888,10 @@
           <t>November 24, 2022</t>
         </is>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44946</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -6162,21 +5965,14 @@
       <c r="AT30" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="n">
         <v>1</v>
       </c>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="n">
         <v>1</v>
       </c>
@@ -6243,10 +6039,10 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>45596</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6259,19 +6055,19 @@
           <t>LMS-2023-.03</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45356</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -6342,20 +6138,12 @@
       <c r="AS31" t="n">
         <v>0.02000000000000002</v>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="n">
         <v>0</v>
       </c>
       <c r="AW31" t="n">
         <v>1</v>
       </c>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="n">
         <v>0</v>
       </c>
@@ -6422,25 +6210,24 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>45595</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>45741</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>44922</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>44929</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="V32" t="inlineStr">
@@ -6448,7 +6235,7 @@
           <t>September 14,2023</t>
         </is>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -6522,19 +6309,12 @@
       <c r="AT32" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="n">
         <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>1</v>
       </c>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
       <c r="BD32" t="n">
         <v>1</v>
       </c>
@@ -6601,10 +6381,10 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45456</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45547</v>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6715,19 +6495,12 @@
       <c r="AT33" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="n">
         <v>0</v>
       </c>
       <c r="AW33" t="n">
         <v>1</v>
       </c>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="n">
         <v>0</v>
       </c>
@@ -6794,7 +6567,7 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45082</v>
       </c>
       <c r="P34" t="inlineStr">
@@ -6910,19 +6683,11 @@
       <c r="AT34" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="n">
         <v>0</v>
       </c>
@@ -6989,7 +6754,7 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45343</v>
       </c>
       <c r="P35" t="inlineStr">
@@ -7105,17 +6870,9 @@
       <c r="AT35" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="n">
         <v>1</v>
       </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="n">
         <v>0</v>
       </c>
@@ -7182,7 +6939,7 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45240</v>
       </c>
       <c r="P36" t="inlineStr">
@@ -7200,19 +6957,19 @@
           <t>INF-2022 LMS-003</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>44878</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>44900</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>44900</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>44914</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -7288,21 +7045,14 @@
       <c r="AT36" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="n">
         <v>1</v>
       </c>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="n">
         <v>1</v>
       </c>
@@ -7369,10 +7119,10 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45337</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Q37" t="inlineStr">
@@ -7385,19 +7135,19 @@
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45048</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45062</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45071</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7473,21 +7223,14 @@
       <c r="AT37" t="n">
         <v>6.24</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="n">
         <v>1</v>
       </c>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="n">
         <v>1</v>
       </c>
@@ -7554,10 +7297,10 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>45483</v>
       </c>
       <c r="Q38" t="inlineStr">
@@ -7570,19 +7313,19 @@
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="X38" t="inlineStr">
@@ -7656,21 +7399,14 @@
       <c r="AT38" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="n">
         <v>1</v>
       </c>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="n">
         <v>1</v>
       </c>
@@ -7737,10 +7473,10 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45483</v>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7753,19 +7489,19 @@
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="X39" t="inlineStr">
@@ -7839,21 +7575,14 @@
       <c r="AT39" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="n">
         <v>1</v>
       </c>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="n">
         <v>0</v>
       </c>
@@ -7920,10 +7649,10 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45447</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>45462</v>
       </c>
       <c r="Q40" t="inlineStr">
@@ -8043,14 +7772,9 @@
       <c r="AW40" t="n">
         <v>1</v>
       </c>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="n">
         <v>1</v>
       </c>
-      <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="n">
         <v>0</v>
       </c>
@@ -8117,10 +7841,10 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="O41" s="3" t="n">
         <v>45710</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>45388</v>
       </c>
       <c r="Q41" t="inlineStr">
@@ -8240,14 +7964,9 @@
       <c r="AW41" t="n">
         <v>1</v>
       </c>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="n">
         <v>1</v>
       </c>
-      <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="n">
         <v>0</v>
       </c>
@@ -8314,10 +8033,10 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="O42" s="3" t="n">
         <v>45402</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>45290</v>
       </c>
       <c r="Q42" t="inlineStr">
@@ -8434,10 +8153,6 @@
       <c r="AV42" t="n">
         <v>1</v>
       </c>
-      <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -8446,7 +8161,6 @@
       <c r="BB42" t="n">
         <v>1</v>
       </c>
-      <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="n">
         <v>0</v>
       </c>
@@ -8513,10 +8227,10 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="O43" s="3" t="n">
         <v>45418</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45277</v>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8633,10 +8347,6 @@
       <c r="AV43" t="n">
         <v>1</v>
       </c>
-      <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -8645,7 +8355,6 @@
       <c r="BB43" t="n">
         <v>1</v>
       </c>
-      <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="n">
         <v>0</v>
       </c>
@@ -8712,10 +8421,10 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" s="2" t="n">
+      <c r="O44" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>45277</v>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8832,10 +8541,6 @@
       <c r="AV44" t="n">
         <v>1</v>
       </c>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -8844,7 +8549,6 @@
       <c r="BB44" t="n">
         <v>1</v>
       </c>
-      <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="n">
         <v>0</v>
       </c>
@@ -8946,10 +8650,10 @@
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>45177</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="X45" t="inlineStr">
@@ -9034,9 +8738,6 @@
       <c r="AW45" t="n">
         <v>1</v>
       </c>
-      <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="inlineStr"/>
-      <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -9045,7 +8746,6 @@
       <c r="BB45" t="n">
         <v>1</v>
       </c>
-      <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="n">
         <v>0</v>
       </c>
@@ -9149,10 +8849,10 @@
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>45334</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="3" t="n">
         <v>45363</v>
       </c>
       <c r="X46" t="inlineStr">
@@ -9223,20 +8923,12 @@
       <c r="AS46" t="n">
         <v>0</v>
       </c>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="n">
         <v>0</v>
       </c>
-      <c r="AW46" t="inlineStr"/>
-      <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
-      <c r="AZ46" t="inlineStr"/>
-      <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="n">
         <v>2</v>
       </c>
-      <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="n">
         <v>1</v>
       </c>
@@ -9303,13 +8995,12 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" s="2" t="n">
+      <c r="O47" s="3" t="n">
         <v>45452</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
         <v>0</v>
       </c>
@@ -9333,7 +9024,7 @@
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="W47" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X47" t="inlineStr">
@@ -9420,14 +9111,9 @@
       <c r="AW47" t="n">
         <v>1</v>
       </c>
-      <c r="AX47" t="inlineStr"/>
-      <c r="AY47" t="inlineStr"/>
-      <c r="AZ47" t="inlineStr"/>
-      <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="n">
         <v>1</v>
       </c>
-      <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="n">
         <v>0</v>
       </c>
@@ -9494,10 +9180,10 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="O48" s="3" t="n">
         <v>45452</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>45496</v>
       </c>
       <c r="Q48" t="inlineStr">
@@ -9530,7 +9216,7 @@
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="W48" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X48" t="inlineStr">
@@ -9617,14 +9303,9 @@
       <c r="AW48" t="n">
         <v>1</v>
       </c>
-      <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="inlineStr"/>
-      <c r="AZ48" t="inlineStr"/>
-      <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="n">
         <v>1</v>
       </c>
-      <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="n">
         <v>1</v>
       </c>
@@ -9691,10 +9372,10 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" s="2" t="n">
+      <c r="O49" s="3" t="n">
         <v>45452</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>45496</v>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9727,7 +9408,7 @@
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="W49" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X49" t="inlineStr">
@@ -9814,14 +9495,9 @@
       <c r="AW49" t="n">
         <v>1</v>
       </c>
-      <c r="AX49" t="inlineStr"/>
-      <c r="AY49" t="inlineStr"/>
-      <c r="AZ49" t="inlineStr"/>
-      <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="n">
         <v>1</v>
       </c>
-      <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="n">
         <v>1</v>
       </c>
@@ -10006,19 +9682,12 @@
       <c r="AT50" t="n">
         <v>9.24</v>
       </c>
-      <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="n">
         <v>0</v>
       </c>
-      <c r="AW50" t="inlineStr"/>
-      <c r="AX50" t="inlineStr"/>
-      <c r="AY50" t="inlineStr"/>
-      <c r="AZ50" t="inlineStr"/>
-      <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="n">
         <v>2</v>
       </c>
-      <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +9807,6 @@
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -10199,15 +9867,6 @@
       <c r="AS51" t="n">
         <v>0.18</v>
       </c>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
-      <c r="AV51" t="inlineStr"/>
-      <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="inlineStr"/>
-      <c r="AY51" t="inlineStr"/>
-      <c r="AZ51" t="inlineStr"/>
-      <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="inlineStr"/>
       <c r="BC51" t="inlineStr">
         <is>
           <t>5th</t>
@@ -10396,15 +10055,6 @@
       <c r="AS52" t="n">
         <v>0.646</v>
       </c>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="inlineStr"/>
-      <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="inlineStr"/>
-      <c r="AZ52" t="inlineStr"/>
-      <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="inlineStr">
         <is>
           <t>1st</t>
@@ -10493,7 +10143,6 @@
           <t>LMS-2024-002</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
@@ -10589,15 +10238,6 @@
       <c r="AS53" t="n">
         <v>0</v>
       </c>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="inlineStr"/>
-      <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="inlineStr"/>
-      <c r="AZ53" t="inlineStr"/>
-      <c r="BA53" t="inlineStr"/>
-      <c r="BB53" t="inlineStr"/>
       <c r="BC53" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -10686,7 +10326,6 @@
           <t>LMS-2024-001</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
@@ -10782,15 +10421,6 @@
       <c r="AS54" t="n">
         <v>0</v>
       </c>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="inlineStr"/>
-      <c r="AZ54" t="inlineStr"/>
-      <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="inlineStr"/>
       <c r="BC54" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -10864,10 +10494,10 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" s="2" t="n">
+      <c r="O55" s="3" t="n">
         <v>45679</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>45672</v>
       </c>
       <c r="Q55" t="inlineStr">
@@ -10880,19 +10510,19 @@
           <t>LMS-2024-02</t>
         </is>
       </c>
-      <c r="S55" s="2" t="n">
+      <c r="S55" s="3" t="n">
         <v>45089</v>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>45439</v>
       </c>
       <c r="X55" t="inlineStr">
@@ -10966,14 +10596,6 @@
       <c r="AT55" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU55" t="inlineStr"/>
-      <c r="AV55" t="inlineStr"/>
-      <c r="AW55" t="inlineStr"/>
-      <c r="AX55" t="inlineStr"/>
-      <c r="AY55" t="inlineStr"/>
-      <c r="AZ55" t="inlineStr"/>
-      <c r="BA55" t="inlineStr"/>
-      <c r="BB55" t="inlineStr"/>
       <c r="BC55" t="inlineStr">
         <is>
           <t>4th</t>
@@ -11047,10 +10669,10 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" s="2" t="n">
+      <c r="O56" s="3" t="n">
         <v>45673</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q56" t="inlineStr">
@@ -11063,19 +10685,19 @@
           <t>LMS-2024-01</t>
         </is>
       </c>
-      <c r="S56" s="2" t="n">
+      <c r="S56" s="3" t="n">
         <v>45089</v>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>45433</v>
       </c>
       <c r="X56" t="inlineStr">
@@ -11149,14 +10771,6 @@
       <c r="AT56" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU56" t="inlineStr"/>
-      <c r="AV56" t="inlineStr"/>
-      <c r="AW56" t="inlineStr"/>
-      <c r="AX56" t="inlineStr"/>
-      <c r="AY56" t="inlineStr"/>
-      <c r="AZ56" t="inlineStr"/>
-      <c r="BA56" t="inlineStr"/>
-      <c r="BB56" t="inlineStr"/>
       <c r="BC56" t="inlineStr">
         <is>
           <t>5th</t>
@@ -11230,31 +10844,30 @@
       <c r="N57" t="n">
         <v>0.75</v>
       </c>
-      <c r="O57" s="2" t="n">
+      <c r="O57" s="3" t="n">
         <v>45814</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45810</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="S57" s="2" t="n">
+      <c r="S57" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>45293</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X57" t="inlineStr">
@@ -11325,15 +10938,6 @@
       <c r="AS57" t="n">
         <v>0.32</v>
       </c>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
-      <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
       <c r="BC57" t="inlineStr">
         <is>
           <t>5th</t>
@@ -11407,7 +11011,7 @@
       <c r="N58" t="n">
         <v>0.73</v>
       </c>
-      <c r="O58" s="2" t="n">
+      <c r="O58" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="P58" t="inlineStr">
@@ -11415,25 +11019,24 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="S58" s="2" t="n">
+      <c r="S58" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>45309</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X58" t="inlineStr">
@@ -11504,15 +11107,6 @@
       <c r="AS58" t="n">
         <v>0.51</v>
       </c>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
-      <c r="AV58" t="inlineStr"/>
-      <c r="AW58" t="inlineStr"/>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
-      <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -11699,15 +11293,6 @@
       <c r="AS59" t="n">
         <v>0.35</v>
       </c>
-      <c r="AT59" t="inlineStr"/>
-      <c r="AU59" t="inlineStr"/>
-      <c r="AV59" t="inlineStr"/>
-      <c r="AW59" t="inlineStr"/>
-      <c r="AX59" t="inlineStr"/>
-      <c r="AY59" t="inlineStr"/>
-      <c r="AZ59" t="inlineStr"/>
-      <c r="BA59" t="inlineStr"/>
-      <c r="BB59" t="inlineStr"/>
       <c r="BC59" t="inlineStr">
         <is>
           <t>4th</t>
@@ -11894,15 +11479,6 @@
       <c r="AS60" t="n">
         <v>0.35</v>
       </c>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AU60" t="inlineStr"/>
-      <c r="AV60" t="inlineStr"/>
-      <c r="AW60" t="inlineStr"/>
-      <c r="AX60" t="inlineStr"/>
-      <c r="AY60" t="inlineStr"/>
-      <c r="AZ60" t="inlineStr"/>
-      <c r="BA60" t="inlineStr"/>
-      <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -11976,7 +11552,7 @@
       <c r="N61" t="n">
         <v>0.76</v>
       </c>
-      <c r="O61" s="2" t="n">
+      <c r="O61" s="3" t="n">
         <v>45778</v>
       </c>
       <c r="P61" t="inlineStr">
@@ -12014,7 +11590,7 @@
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="X61" t="inlineStr">
@@ -12085,15 +11661,6 @@
       <c r="AS61" t="n">
         <v>0.01000000000000001</v>
       </c>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr"/>
-      <c r="AV61" t="inlineStr"/>
-      <c r="AW61" t="inlineStr"/>
-      <c r="AX61" t="inlineStr"/>
-      <c r="AY61" t="inlineStr"/>
-      <c r="AZ61" t="inlineStr"/>
-      <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="inlineStr">
         <is>
           <t>1st</t>
@@ -12167,7 +11734,7 @@
       <c r="N62" t="n">
         <v>0.82</v>
       </c>
-      <c r="O62" s="2" t="n">
+      <c r="O62" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="P62" t="inlineStr">
@@ -12205,7 +11772,7 @@
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="X62" t="inlineStr">
@@ -12276,15 +11843,6 @@
       <c r="AS62" t="n">
         <v>0.01999999999999991</v>
       </c>
-      <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr"/>
-      <c r="AV62" t="inlineStr"/>
-      <c r="AW62" t="inlineStr"/>
-      <c r="AX62" t="inlineStr"/>
-      <c r="AY62" t="inlineStr"/>
-      <c r="AZ62" t="inlineStr"/>
-      <c r="BA62" t="inlineStr"/>
-      <c r="BB62" t="inlineStr"/>
       <c r="BC62" t="inlineStr">
         <is>
           <t>1st</t>
@@ -12363,7 +11921,7 @@
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>45597</v>
       </c>
       <c r="Q63" t="inlineStr">
@@ -12472,14 +12030,6 @@
       <c r="AT63" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU63" t="inlineStr"/>
-      <c r="AV63" t="inlineStr"/>
-      <c r="AW63" t="inlineStr"/>
-      <c r="AX63" t="inlineStr"/>
-      <c r="AY63" t="inlineStr"/>
-      <c r="AZ63" t="inlineStr"/>
-      <c r="BA63" t="inlineStr"/>
-      <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -12558,7 +12108,7 @@
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>45597</v>
       </c>
       <c r="Q64" t="inlineStr">
@@ -12667,14 +12217,6 @@
       <c r="AT64" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU64" t="inlineStr"/>
-      <c r="AV64" t="inlineStr"/>
-      <c r="AW64" t="inlineStr"/>
-      <c r="AX64" t="inlineStr"/>
-      <c r="AY64" t="inlineStr"/>
-      <c r="AZ64" t="inlineStr"/>
-      <c r="BA64" t="inlineStr"/>
-      <c r="BB64" t="inlineStr"/>
       <c r="BC64" t="inlineStr">
         <is>
           <t>1st</t>
@@ -12686,6 +12228,88 @@
       <c r="BE64" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="BF2:BF64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="BG2:BG64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="BH2:BH64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="BI2:BI64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/CAR/CAR_LMS.xlsx
+++ b/Filtered_By_Region/CAR/CAR_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD64"/>
+  <dimension ref="A1:BE64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,10 +782,10 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44693</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44663</v>
       </c>
       <c r="Q2" t="n">
@@ -790,19 +796,19 @@
           <t>CAR-ABRA-2021-07</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X2" t="inlineStr">
@@ -878,19 +884,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
@@ -952,10 +950,10 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>44713</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44632</v>
       </c>
       <c r="Q3" t="n">
@@ -966,19 +964,19 @@
           <t>CAR-ABRA-2021-09</t>
         </is>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X3" t="inlineStr">
@@ -1057,18 +1055,11 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
@@ -1130,10 +1121,10 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>44723</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44739</v>
       </c>
       <c r="Q4" t="n">
@@ -1144,19 +1135,19 @@
           <t>CAR-ABRA-2021-10</t>
         </is>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X4" t="inlineStr">
@@ -1232,19 +1223,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
@@ -1306,10 +1289,10 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44632</v>
       </c>
       <c r="Q5" t="n">
@@ -1320,19 +1303,19 @@
           <t>CAR-ABRA-2021-08</t>
         </is>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="X5" t="inlineStr">
@@ -1408,19 +1391,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
@@ -1601,18 +1576,11 @@
       <c r="AU6" t="n">
         <v>1</v>
       </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1649,7 +1617,6 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>2</v>
       </c>
@@ -1658,7 +1625,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1789,18 +1755,11 @@
       <c r="AU7" t="n">
         <v>1</v>
       </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -1977,18 +1936,11 @@
       <c r="AU8" t="n">
         <v>1</v>
       </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2009,7 +1961,6 @@
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Lubo-ong ES- Extension</t>
@@ -2064,13 +2015,13 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="V9" t="inlineStr">
@@ -2152,19 +2103,11 @@
       <c r="AT9" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
@@ -2185,7 +2128,6 @@
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Jolowon ES-Annex</t>
@@ -2240,13 +2182,13 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="V10" t="inlineStr">
@@ -2336,17 +2278,11 @@
       <c r="AV10" t="n">
         <v>1</v>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>0</v>
       </c>
@@ -2520,19 +2456,11 @@
       <c r="AT11" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
@@ -2704,19 +2632,11 @@
       <c r="AT12" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2753,7 +2673,6 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>2</v>
       </c>
@@ -2762,7 +2681,6 @@
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -2884,19 +2802,11 @@
       <c r="AT13" t="n">
         <v>2.23</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -3070,19 +2980,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3119,7 +3021,6 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>2</v>
       </c>
@@ -3128,7 +3029,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM,WATER SYSTEM, &amp; SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -3252,19 +3152,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3441,18 +3333,11 @@
       <c r="AU16" t="n">
         <v>1</v>
       </c>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
@@ -3530,13 +3415,13 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="S17" s="3" t="n">
         <v>44385</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="V17" t="inlineStr">
@@ -3623,18 +3508,11 @@
       <c r="AU17" t="n">
         <v>1</v>
       </c>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>0</v>
       </c>
@@ -3803,20 +3681,12 @@
       <c r="AS18" t="n">
         <v>0</v>
       </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
       </c>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>1</v>
       </c>
@@ -3985,20 +3855,12 @@
       <c r="AS19" t="n">
         <v>0</v>
       </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>1</v>
       </c>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
@@ -4167,20 +4029,12 @@
       <c r="AS20" t="n">
         <v>0</v>
       </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>1</v>
       </c>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>1</v>
       </c>
@@ -4349,20 +4203,12 @@
       <c r="AS21" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="n">
         <v>0</v>
       </c>
       <c r="AW21" t="n">
         <v>1</v>
       </c>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>1</v>
       </c>
@@ -4531,20 +4377,12 @@
       <c r="AS22" t="n">
         <v>0</v>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="n">
         <v>0</v>
       </c>
       <c r="AW22" t="n">
         <v>1</v>
       </c>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4713,20 +4551,12 @@
       <c r="AS23" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="n">
         <v>0</v>
       </c>
       <c r="AW23" t="n">
         <v>1</v>
       </c>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -4895,20 +4725,12 @@
       <c r="AS24" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -4970,10 +4792,10 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4986,7 +4808,7 @@
           <t>CAR-ABRA-2022-04-002</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>44645</v>
       </c>
       <c r="T25" t="inlineStr">
@@ -5080,21 +4902,14 @@
       <c r="AT25" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="n">
         <v>1</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>0</v>
       </c>
@@ -5156,10 +4971,10 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5268,23 +5083,17 @@
       <c r="AT26" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="n">
         <v>0</v>
       </c>
       <c r="AW26" t="n">
         <v>1</v>
       </c>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="n">
         <v>0</v>
       </c>
@@ -5346,10 +5155,10 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45122</v>
       </c>
       <c r="Q27" t="inlineStr">
@@ -5362,7 +5171,7 @@
           <t>CAR-ABRA-2022-04-001</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>44645</v>
       </c>
       <c r="T27" t="inlineStr">
@@ -5456,21 +5265,14 @@
       <c r="AT27" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="n">
         <v>1</v>
       </c>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
         <v>0</v>
       </c>
@@ -5568,7 +5370,7 @@
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>44813</v>
       </c>
       <c r="W28" t="inlineStr">
@@ -5647,21 +5449,14 @@
       <c r="AT28" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="n">
         <v>1</v>
       </c>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="n">
         <v>1</v>
       </c>
@@ -5723,10 +5518,10 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="3" t="n">
         <v>45159</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5754,7 +5549,7 @@
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>44813</v>
       </c>
       <c r="W29" t="inlineStr">
@@ -5833,21 +5628,14 @@
       <c r="AT29" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="n">
         <v>1</v>
       </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="n">
         <v>1</v>
       </c>
@@ -5909,10 +5697,10 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>45240</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5940,10 +5728,10 @@
           <t>November 24, 2022</t>
         </is>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>44946</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>44970</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -6017,21 +5805,14 @@
       <c r="AT30" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="n">
         <v>1</v>
       </c>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="n">
         <v>1</v>
       </c>
@@ -6093,10 +5874,10 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>45596</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>45807</v>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6109,19 +5890,19 @@
           <t>LMS-2023-.03</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45279</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45356</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -6195,19 +5976,12 @@
       <c r="AT31" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="n">
         <v>0</v>
       </c>
       <c r="AW31" t="n">
         <v>1</v>
       </c>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="n">
         <v>0</v>
       </c>
@@ -6269,25 +6043,24 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>45595</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>45741</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>44922</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>44929</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>44943</v>
       </c>
       <c r="V32" t="inlineStr">
@@ -6295,7 +6068,7 @@
           <t>September 14,2023</t>
         </is>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -6369,19 +6142,12 @@
       <c r="AT32" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="n">
         <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>1</v>
       </c>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
       <c r="BD32" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6209,7 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45082</v>
       </c>
       <c r="P33" t="inlineStr">
@@ -6559,19 +6325,12 @@
       <c r="AT33" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="n">
         <v>0</v>
       </c>
       <c r="AW33" t="n">
         <v>1</v>
       </c>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="n">
         <v>0</v>
       </c>
@@ -6633,7 +6392,7 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45343</v>
       </c>
       <c r="P34" t="inlineStr">
@@ -6749,19 +6508,11 @@
       <c r="AT34" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="n">
         <v>0</v>
       </c>
@@ -6823,10 +6574,10 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45456</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>45547</v>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6937,17 +6688,9 @@
       <c r="AT35" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="n">
         <v>1</v>
       </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="n">
         <v>0</v>
       </c>
@@ -7009,7 +6752,7 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45240</v>
       </c>
       <c r="P36" t="inlineStr">
@@ -7027,19 +6770,19 @@
           <t>INF-2022 LMS-003</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>44878</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>44900</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>44900</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>44914</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -7115,21 +6858,14 @@
       <c r="AT36" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="n">
         <v>1</v>
       </c>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="n">
         <v>1</v>
       </c>
@@ -7191,10 +6927,10 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45337</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Q37" t="inlineStr">
@@ -7207,19 +6943,19 @@
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45048</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45062</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45071</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7295,21 +7031,14 @@
       <c r="AT37" t="n">
         <v>6.24</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="n">
         <v>1</v>
       </c>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="n">
         <v>1</v>
       </c>
@@ -7371,10 +7100,10 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>45483</v>
       </c>
       <c r="Q38" t="inlineStr">
@@ -7387,19 +7116,19 @@
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="X38" t="inlineStr">
@@ -7473,21 +7202,14 @@
       <c r="AT38" t="n">
         <v>2.24</v>
       </c>
-      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="n">
         <v>1</v>
       </c>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="n">
         <v>1</v>
       </c>
@@ -7549,10 +7271,10 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45483</v>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7565,19 +7287,19 @@
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="X39" t="inlineStr">
@@ -7651,21 +7373,14 @@
       <c r="AT39" t="n">
         <v>7.23</v>
       </c>
-      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="n">
         <v>1</v>
       </c>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="n">
         <v>0</v>
       </c>
@@ -7727,10 +7442,10 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45447</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>45462</v>
       </c>
       <c r="Q40" t="inlineStr">
@@ -7850,14 +7565,9 @@
       <c r="AW40" t="n">
         <v>1</v>
       </c>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="n">
         <v>1</v>
       </c>
-      <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="n">
         <v>0</v>
       </c>
@@ -7919,10 +7629,10 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="O41" s="3" t="n">
         <v>45710</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>45388</v>
       </c>
       <c r="Q41" t="inlineStr">
@@ -8042,14 +7752,9 @@
       <c r="AW41" t="n">
         <v>1</v>
       </c>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="n">
         <v>1</v>
       </c>
-      <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="n">
         <v>0</v>
       </c>
@@ -8111,10 +7816,10 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="O42" s="3" t="n">
         <v>45402</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>45290</v>
       </c>
       <c r="Q42" t="inlineStr">
@@ -8231,10 +7936,6 @@
       <c r="AV42" t="n">
         <v>1</v>
       </c>
-      <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -8243,7 +7944,6 @@
       <c r="BB42" t="n">
         <v>1</v>
       </c>
-      <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="n">
         <v>0</v>
       </c>
@@ -8305,10 +8005,10 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="O43" s="3" t="n">
         <v>45418</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45277</v>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8425,10 +8125,6 @@
       <c r="AV43" t="n">
         <v>1</v>
       </c>
-      <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -8437,7 +8133,6 @@
       <c r="BB43" t="n">
         <v>1</v>
       </c>
-      <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="n">
         <v>0</v>
       </c>
@@ -8499,10 +8194,10 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" s="2" t="n">
+      <c r="O44" s="3" t="n">
         <v>45305</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>45277</v>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8619,10 +8314,6 @@
       <c r="AV44" t="n">
         <v>1</v>
       </c>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -8631,7 +8322,6 @@
       <c r="BB44" t="n">
         <v>1</v>
       </c>
-      <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="n">
         <v>0</v>
       </c>
@@ -8728,10 +8418,10 @@
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>45177</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="X45" t="inlineStr">
@@ -8816,9 +8506,6 @@
       <c r="AW45" t="n">
         <v>1</v>
       </c>
-      <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="inlineStr"/>
-      <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -8827,7 +8514,6 @@
       <c r="BB45" t="n">
         <v>1</v>
       </c>
-      <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="n">
         <v>0</v>
       </c>
@@ -8926,10 +8612,10 @@
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>45334</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="3" t="n">
         <v>45363</v>
       </c>
       <c r="X46" t="inlineStr">
@@ -9003,19 +8689,12 @@
       <c r="AT46" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="n">
         <v>0</v>
       </c>
-      <c r="AW46" t="inlineStr"/>
-      <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
-      <c r="AZ46" t="inlineStr"/>
-      <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="n">
         <v>2</v>
       </c>
-      <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="n">
         <v>1</v>
       </c>
@@ -9077,13 +8756,12 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" s="2" t="n">
+      <c r="O47" s="3" t="n">
         <v>45452</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
         <v>0</v>
       </c>
@@ -9107,7 +8785,7 @@
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="W47" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X47" t="inlineStr">
@@ -9194,14 +8872,9 @@
       <c r="AW47" t="n">
         <v>1</v>
       </c>
-      <c r="AX47" t="inlineStr"/>
-      <c r="AY47" t="inlineStr"/>
-      <c r="AZ47" t="inlineStr"/>
-      <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="n">
         <v>1</v>
       </c>
-      <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="n">
         <v>0</v>
       </c>
@@ -9263,10 +8936,10 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="O48" s="3" t="n">
         <v>45452</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>45496</v>
       </c>
       <c r="Q48" t="inlineStr">
@@ -9299,7 +8972,7 @@
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="W48" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X48" t="inlineStr">
@@ -9386,14 +9059,9 @@
       <c r="AW48" t="n">
         <v>1</v>
       </c>
-      <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="inlineStr"/>
-      <c r="AZ48" t="inlineStr"/>
-      <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="n">
         <v>1</v>
       </c>
-      <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="n">
         <v>1</v>
       </c>
@@ -9455,10 +9123,10 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" s="2" t="n">
+      <c r="O49" s="3" t="n">
         <v>45452</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>45496</v>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9491,7 +9159,7 @@
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="W49" s="3" t="n">
         <v>45173</v>
       </c>
       <c r="X49" t="inlineStr">
@@ -9578,14 +9246,9 @@
       <c r="AW49" t="n">
         <v>1</v>
       </c>
-      <c r="AX49" t="inlineStr"/>
-      <c r="AY49" t="inlineStr"/>
-      <c r="AZ49" t="inlineStr"/>
-      <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="n">
         <v>1</v>
       </c>
-      <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="n">
         <v>1</v>
       </c>
@@ -9765,19 +9428,12 @@
       <c r="AT50" t="n">
         <v>9.24</v>
       </c>
-      <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="n">
         <v>0</v>
       </c>
-      <c r="AW50" t="inlineStr"/>
-      <c r="AX50" t="inlineStr"/>
-      <c r="AY50" t="inlineStr"/>
-      <c r="AZ50" t="inlineStr"/>
-      <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="n">
         <v>2</v>
       </c>
-      <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="n">
         <v>1</v>
       </c>
@@ -9892,7 +9548,6 @@
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
@@ -9956,14 +9611,6 @@
       <c r="AT51" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU51" t="inlineStr"/>
-      <c r="AV51" t="inlineStr"/>
-      <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="inlineStr"/>
-      <c r="AY51" t="inlineStr"/>
-      <c r="AZ51" t="inlineStr"/>
-      <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="inlineStr"/>
       <c r="BC51" t="inlineStr">
         <is>
           <t>5th</t>
@@ -10147,15 +9794,6 @@
       <c r="AS52" t="n">
         <v>0.646</v>
       </c>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="inlineStr"/>
-      <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="inlineStr"/>
-      <c r="AZ52" t="inlineStr"/>
-      <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="inlineStr">
         <is>
           <t>1st</t>
@@ -10239,7 +9877,6 @@
           <t>LMS-2024-002</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
@@ -10338,14 +9975,6 @@
       <c r="AT53" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="inlineStr"/>
-      <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="inlineStr"/>
-      <c r="AZ53" t="inlineStr"/>
-      <c r="BA53" t="inlineStr"/>
-      <c r="BB53" t="inlineStr"/>
       <c r="BC53" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -10429,7 +10058,6 @@
           <t>LMS-2024-001</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
@@ -10528,14 +10156,6 @@
       <c r="AT54" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="inlineStr"/>
-      <c r="AZ54" t="inlineStr"/>
-      <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="inlineStr"/>
       <c r="BC54" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -10604,10 +10224,10 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" s="2" t="n">
+      <c r="O55" s="3" t="n">
         <v>45679</v>
       </c>
-      <c r="P55" s="2" t="n">
+      <c r="P55" s="3" t="n">
         <v>45672</v>
       </c>
       <c r="Q55" t="inlineStr">
@@ -10620,19 +10240,19 @@
           <t>LMS-2024-02</t>
         </is>
       </c>
-      <c r="S55" s="2" t="n">
+      <c r="S55" s="3" t="n">
         <v>45089</v>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="T55" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="U55" s="2" t="n">
+      <c r="U55" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V55" s="2" t="n">
+      <c r="V55" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="W55" s="2" t="n">
+      <c r="W55" s="3" t="n">
         <v>45439</v>
       </c>
       <c r="X55" t="inlineStr">
@@ -10706,14 +10326,6 @@
       <c r="AT55" t="n">
         <v>3.25</v>
       </c>
-      <c r="AU55" t="inlineStr"/>
-      <c r="AV55" t="inlineStr"/>
-      <c r="AW55" t="inlineStr"/>
-      <c r="AX55" t="inlineStr"/>
-      <c r="AY55" t="inlineStr"/>
-      <c r="AZ55" t="inlineStr"/>
-      <c r="BA55" t="inlineStr"/>
-      <c r="BB55" t="inlineStr"/>
       <c r="BC55" t="inlineStr">
         <is>
           <t>4th</t>
@@ -10782,10 +10394,10 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" s="2" t="n">
+      <c r="O56" s="3" t="n">
         <v>45673</v>
       </c>
-      <c r="P56" s="2" t="n">
+      <c r="P56" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q56" t="inlineStr">
@@ -10798,19 +10410,19 @@
           <t>LMS-2024-01</t>
         </is>
       </c>
-      <c r="S56" s="2" t="n">
+      <c r="S56" s="3" t="n">
         <v>45089</v>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="T56" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="U56" s="2" t="n">
+      <c r="U56" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V56" s="2" t="n">
+      <c r="V56" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="W56" s="2" t="n">
+      <c r="W56" s="3" t="n">
         <v>45433</v>
       </c>
       <c r="X56" t="inlineStr">
@@ -10884,14 +10496,6 @@
       <c r="AT56" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU56" t="inlineStr"/>
-      <c r="AV56" t="inlineStr"/>
-      <c r="AW56" t="inlineStr"/>
-      <c r="AX56" t="inlineStr"/>
-      <c r="AY56" t="inlineStr"/>
-      <c r="AZ56" t="inlineStr"/>
-      <c r="BA56" t="inlineStr"/>
-      <c r="BB56" t="inlineStr"/>
       <c r="BC56" t="inlineStr">
         <is>
           <t>5th</t>
@@ -10960,31 +10564,30 @@
       <c r="N57" t="n">
         <v>0.75</v>
       </c>
-      <c r="O57" s="2" t="n">
+      <c r="O57" s="3" t="n">
         <v>45814</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45810</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="S57" s="2" t="n">
+      <c r="S57" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="T57" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="U57" s="2" t="n">
+      <c r="U57" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="3" t="n">
         <v>45293</v>
       </c>
-      <c r="W57" s="2" t="n">
+      <c r="W57" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X57" t="inlineStr">
@@ -11055,15 +10658,6 @@
       <c r="AS57" t="n">
         <v>0.32</v>
       </c>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
-      <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
       <c r="BC57" t="inlineStr">
         <is>
           <t>5th</t>
@@ -11132,7 +10726,7 @@
       <c r="N58" t="n">
         <v>0.73</v>
       </c>
-      <c r="O58" s="2" t="n">
+      <c r="O58" s="3" t="n">
         <v>45814</v>
       </c>
       <c r="P58" t="inlineStr">
@@ -11140,25 +10734,24 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="S58" s="2" t="n">
+      <c r="S58" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="T58" s="3" t="n">
         <v>45265</v>
       </c>
-      <c r="U58" s="2" t="n">
+      <c r="U58" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="3" t="n">
         <v>45309</v>
       </c>
-      <c r="W58" s="2" t="n">
+      <c r="W58" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="X58" t="inlineStr">
@@ -11229,15 +10822,6 @@
       <c r="AS58" t="n">
         <v>0.51</v>
       </c>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
-      <c r="AV58" t="inlineStr"/>
-      <c r="AW58" t="inlineStr"/>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
-      <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -11419,15 +11003,6 @@
       <c r="AS59" t="n">
         <v>0.35</v>
       </c>
-      <c r="AT59" t="inlineStr"/>
-      <c r="AU59" t="inlineStr"/>
-      <c r="AV59" t="inlineStr"/>
-      <c r="AW59" t="inlineStr"/>
-      <c r="AX59" t="inlineStr"/>
-      <c r="AY59" t="inlineStr"/>
-      <c r="AZ59" t="inlineStr"/>
-      <c r="BA59" t="inlineStr"/>
-      <c r="BB59" t="inlineStr"/>
       <c r="BC59" t="inlineStr">
         <is>
           <t>4th</t>
@@ -11609,15 +11184,6 @@
       <c r="AS60" t="n">
         <v>0.35</v>
       </c>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AU60" t="inlineStr"/>
-      <c r="AV60" t="inlineStr"/>
-      <c r="AW60" t="inlineStr"/>
-      <c r="AX60" t="inlineStr"/>
-      <c r="AY60" t="inlineStr"/>
-      <c r="AZ60" t="inlineStr"/>
-      <c r="BA60" t="inlineStr"/>
-      <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -11686,7 +11252,7 @@
       <c r="N61" t="n">
         <v>0.76</v>
       </c>
-      <c r="O61" s="2" t="n">
+      <c r="O61" s="3" t="n">
         <v>45778</v>
       </c>
       <c r="P61" t="inlineStr">
@@ -11724,7 +11290,7 @@
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W61" s="2" t="n">
+      <c r="W61" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="X61" t="inlineStr">
@@ -11795,15 +11361,6 @@
       <c r="AS61" t="n">
         <v>0.01000000000000001</v>
       </c>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr"/>
-      <c r="AV61" t="inlineStr"/>
-      <c r="AW61" t="inlineStr"/>
-      <c r="AX61" t="inlineStr"/>
-      <c r="AY61" t="inlineStr"/>
-      <c r="AZ61" t="inlineStr"/>
-      <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="inlineStr">
         <is>
           <t>1st</t>
@@ -11872,7 +11429,7 @@
       <c r="N62" t="n">
         <v>0.82</v>
       </c>
-      <c r="O62" s="2" t="n">
+      <c r="O62" s="3" t="n">
         <v>45808</v>
       </c>
       <c r="P62" t="inlineStr">
@@ -11910,7 +11467,7 @@
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W62" s="2" t="n">
+      <c r="W62" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="X62" t="inlineStr">
@@ -11981,15 +11538,6 @@
       <c r="AS62" t="n">
         <v>0.01999999999999991</v>
       </c>
-      <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr"/>
-      <c r="AV62" t="inlineStr"/>
-      <c r="AW62" t="inlineStr"/>
-      <c r="AX62" t="inlineStr"/>
-      <c r="AY62" t="inlineStr"/>
-      <c r="AZ62" t="inlineStr"/>
-      <c r="BA62" t="inlineStr"/>
-      <c r="BB62" t="inlineStr"/>
       <c r="BC62" t="inlineStr">
         <is>
           <t>1st</t>
@@ -12063,7 +11611,7 @@
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>45597</v>
       </c>
       <c r="Q63" t="inlineStr">
@@ -12172,14 +11720,6 @@
       <c r="AT63" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU63" t="inlineStr"/>
-      <c r="AV63" t="inlineStr"/>
-      <c r="AW63" t="inlineStr"/>
-      <c r="AX63" t="inlineStr"/>
-      <c r="AY63" t="inlineStr"/>
-      <c r="AZ63" t="inlineStr"/>
-      <c r="BA63" t="inlineStr"/>
-      <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -12253,7 +11793,7 @@
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>45597</v>
       </c>
       <c r="Q64" t="inlineStr">
@@ -12362,14 +11902,6 @@
       <c r="AT64" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU64" t="inlineStr"/>
-      <c r="AV64" t="inlineStr"/>
-      <c r="AW64" t="inlineStr"/>
-      <c r="AX64" t="inlineStr"/>
-      <c r="AY64" t="inlineStr"/>
-      <c r="AZ64" t="inlineStr"/>
-      <c r="BA64" t="inlineStr"/>
-      <c r="BB64" t="inlineStr"/>
       <c r="BC64" t="inlineStr">
         <is>
           <t>1st</t>
@@ -12377,6 +11909,79 @@
       </c>
       <c r="BD64" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/CAR/CAR_LMS.xlsx
+++ b/Filtered_By_Region/CAR/CAR_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,6798 +447,6827 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="466" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="28" customWidth="1" min="18" max="18"/>
+    <col width="32" customWidth="1" min="19" max="19"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="29" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="61" customWidth="1" min="24" max="24"/>
+    <col width="163" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>135114</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Tillilo PS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>LUBA</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOIL PROTECTION, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>18778535.1102</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>18761650.97</v>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="n">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>44693</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6" t="n">
         <v>44663</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-07</t>
         </is>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>Lonnie Construction/Lonnie Moun B.Quilloy</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Y2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>135170</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Bantay Primary School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOIL PROTECTION, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>9593256.5077</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>9578381.720000001</v>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
         <v>44713</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <v>44632</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-09</t>
         </is>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">HGW=3 Engineering &amp; Construction/ Hilbert B. Willie       </t>
         </is>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Y3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>135101</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Likowan PS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>TUBO</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOIL PROTECTION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>18135713.24906993</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>18121787.12</v>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="n">
         <v>44723</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <v>44739</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-10</t>
         </is>
       </c>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>HOPE EFG Builders/Esther P. Sangcaan</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Y4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>218508</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Gacab PS</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>MALIBCONG</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE,  WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>21387725.206</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>21372483.54</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="n">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>44743</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <v>44632</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-08</t>
         </is>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="T5" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>Baje Construction/Ernesto B. Baje</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>135231</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Cadaclan ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CALANASAN (BAYAG)</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>18186711.6621</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>LMS-2020-001</t>
         </is>
       </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>July 1,2021</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>July 7,2021</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>July 19,2021</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>Contract Preparation</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>135231</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Cadaclan ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>CALANASAN (BAYAG)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>LMS-2020-001</t>
         </is>
       </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>July 1,2021</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>July 7,2021</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>July 19,2021</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Contract Preparation</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>135556</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Mongoto Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Kabayan</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM AND RETAINING WALL</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>20828590.34069782</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>Delay was caused by the collapsed retaining wall</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Lubo-ong ES- Extension</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>HUNGDUAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE , WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>14038425.3807</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="6" t="n">
         <v>44425</v>
       </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Jolowon ES-Annex</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Lamut</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE, SLOPE PROTECTION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>18410762.9113</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="n">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="6" t="n">
         <v>44425</v>
       </c>
-      <c r="V10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>The project was terminated due to more than 10% slippage and LD to other DepEd Projects</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>136128</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Pangol Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>TANUDAN</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>11333380.9021</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>For Posting Due to Revalidation of the Project Site and Program Revision on Site Adoptation. (Target for posting August 17, 2021</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>136151</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Tulgao East Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>TINGLAYAN</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>20714406.06139439</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>136151</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Tulgao East Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>TINGLAYAN</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="n">
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr"/>
-      <c r="L13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>136284</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Apalis Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND  SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>27229155.3076</v>
       </c>
-      <c r="L14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
         <is>
           <t>August 9,2021</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>136284</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Apalis Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="n">
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM,WATER SYSTEM, &amp; SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>August 9,2021</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>136157</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Balatoc Primary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>TABUK CITY</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE STOREY FOUR CLASSROOM SCHOOL BUILDING (WITH COMMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>15304902.1749</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>136182</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Tangbay Primary School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>15364666.07977862</v>
       </c>
-      <c r="L17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5" t="n">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6" t="n">
         <v>44385</v>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>ongoing lay out of cr tiles, ground clearing, installation of electrical fixture, installation of window glass and concreting of concrete infront of the building</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="Z17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>135261</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Daga ES</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>CONNER</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE(3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHTING SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>10705275.29</v>
       </c>
-      <c r="L18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="N18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>219014</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>San Mariano ES</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>PUDTOL</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAIN WATER COLLECTOR,SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>8222048.54986006</v>
       </c>
-      <c r="L19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="L19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W19" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="N19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>318918</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Adaoay National High School-Abucot Extn.</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>KABAYAN</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE(1) STOREY TWO(2) CLASSROOMS SCHOOL BUILDINGS (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM AND RETAINING WALL</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>10887942</v>
       </c>
-      <c r="L20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="L20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W20" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="N20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>135708</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Saguitlang Elementary School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>TUBA</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE(1) STOREY FOUR(4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>17529648.15</v>
       </c>
-      <c r="L21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="L21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W21" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="N21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>135970</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Bullalayao Primary School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>BALBALAN</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF  SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, RAIN WATER COLLECTOR AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>10930337.18196885</v>
       </c>
-      <c r="L22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="L22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W22" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="N22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>136286</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Bagabag Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="G23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>13914381.12</v>
       </c>
-      <c r="L23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="L23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W23" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="N23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>136172</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Mabato Elementary School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>TABUK CITY</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="G24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>12054411.38547593</v>
       </c>
-      <c r="L24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="L24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W24" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="N24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>135208</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Collago ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>LAGAYAN</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>9300666.890799999</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>9194846.220000001</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="n">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="6" t="n">
         <v>45122</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>OSEC-CAR-22-6291</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2022-04-002</t>
         </is>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="6" t="n">
         <v>44645</v>
       </c>
-      <c r="T25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>April 1, 2022</t>
         </is>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>April 13, 2022</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>April 27, 2022</t>
         </is>
       </c>
-      <c r="W25" s="4" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>September 22, 2022</t>
         </is>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Y25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>135186</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Lam-aoan PS</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="G26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SLOPE PROTECTION, WATER SYSTEM AND REPAIR OF CLASSROOM</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>20019229.9273</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>19802771.1822695</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="n">
+      <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="P26" s="6" t="n">
         <v>45122</v>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>OSEC-CAR-22-6778</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2022-016</t>
         </is>
       </c>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>October 12, 2022</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>October 19, 2022</t>
         </is>
       </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>November 2, 2022</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>November 10, 2022</t>
         </is>
       </c>
-      <c r="W26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>November 24, 2022</t>
         </is>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Y26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>109752</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>MANICBEL PRIMARY SCHOOL</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="G27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SLOPE PROTECTION AND  WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>19207305.1582</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>19001015.84</v>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5" t="n">
+      <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="6" t="n">
         <v>45122</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>OSEC-CAR-22-6291</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2022-04-001</t>
         </is>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="6" t="n">
         <v>44645</v>
       </c>
-      <c r="T27" s="4" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>April 1, 2022</t>
         </is>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>April 13, 2022</t>
         </is>
       </c>
-      <c r="V27" s="4" t="inlineStr">
+      <c r="V27" s="5" t="inlineStr">
         <is>
           <t>sq</t>
         </is>
       </c>
-      <c r="W27" s="4" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>a1</t>
         </is>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Y27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>135675</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Ebbes ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>SABLAN</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="G28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM,
 REPAIR AND REHABILITATION OF CALSSROOMS AND IMPROVEMENT OF SCHOOLS FACILITIES</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>25486535.97675037</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>22001471.0172</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>JULY 17, 2023</t>
         </is>
       </c>
-      <c r="P28" s="4" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>11/20/2023</t>
         </is>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>May 11, 2022</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>May 18, 2022</t>
         </is>
       </c>
-      <c r="U28" s="4" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="6" t="n">
         <v>44813</v>
       </c>
-      <c r="W28" s="4" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>0CTOBER 6, 2022</t>
         </is>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>JRF ANGOYNA GENERAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Y28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>135722</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Balangabang ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>21324715.1738</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>18159900.52032</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="n">
+      <c r="N29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6" t="n">
         <v>45159</v>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="P29" s="6" t="n">
         <v>45152</v>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-02</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>May 11, 2022</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>May 18, 2022</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="6" t="n">
         <v>44813</v>
       </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>0CTOBER 6, 2022</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>JRF ANGOYNA GENERAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Y29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>135725</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Dorencio ES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>18770107.0743</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>17086845.6</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="n">
+      <c r="N30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6" t="n">
         <v>45240</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="P30" s="6" t="n">
         <v>45260</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>November 04, 2022</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>November 11, 2022</t>
         </is>
       </c>
-      <c r="U30" s="4" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr">
         <is>
           <t>November 24, 2022</t>
         </is>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" s="6" t="n">
         <v>44946</v>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="6" t="n">
         <v>44970</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>KAT BUILDERS</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Y30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>135799</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Namal ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>ASIPULO</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="G31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SLOPE PROTECTION, WATER SYSTEM AND PERIMETER FENCE (ONE BAY, 3.0M) WITH VEHICULAR  AND PEDESTRIAN ENTRANCE/EXIT GATES </t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>23515376.9847</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>23275032.58</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5" t="n">
+      <c r="N31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6" t="n">
         <v>45596</v>
       </c>
-      <c r="P31" s="5" t="n">
+      <c r="P31" s="6" t="n">
         <v>45807</v>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-.02</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-.03</t>
         </is>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="5" t="n">
+      <c r="T31" s="6" t="n">
         <v>45266</v>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="6" t="n">
         <v>45279</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>HAIGHTS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Y31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>135800</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Nangkatengey ES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>ASIPULO</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="G32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET)  WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE,SOLAR PV ENERGY SYSTEM AND WATER SYSTEM AND CONSTRUCTION OF ONE (1) STOREY -TWO(2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, PERIMETER FENCE (ONE BAY, 3.0M) WITH VEHICULAR  AND PEDESTRIAN ENTRANCE/EXIT GATES AND  SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>28545849.0892</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>28270735.81</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="n">
+      <c r="N32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6" t="n">
         <v>45595</v>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="P32" s="6" t="n">
         <v>45741</v>
       </c>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="6" t="n">
         <v>44922</v>
       </c>
-      <c r="T32" s="5" t="n">
+      <c r="T32" s="6" t="n">
         <v>44929</v>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>44943</v>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>September 14,2023</t>
         </is>
       </c>
-      <c r="W32" s="5" t="n">
+      <c r="W32" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>Northern Communications Inc.</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Y32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>305213</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Pasil National High School</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="G33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE,AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>11549894.54662381</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>10323114.96</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5" t="n">
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6" t="n">
         <v>45082</v>
       </c>
-      <c r="P33" s="4" t="inlineStr">
+      <c r="P33" s="5" t="inlineStr">
         <is>
           <t>July 20, 2023</t>
         </is>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="S33" s="4" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>August 12,2022</t>
         </is>
       </c>
-      <c r="T33" s="4" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>August 19,2022</t>
         </is>
       </c>
-      <c r="U33" s="4" t="inlineStr">
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>August 31,2022</t>
         </is>
       </c>
-      <c r="V33" s="4" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>October 14, 2022</t>
         </is>
       </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>December 22, 2022</t>
         </is>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Z33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>136019</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Cagaluan Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="G34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH DETACHED TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>12754502.0283</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>12625269.69</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="n">
+      <c r="N34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="P34" s="4" t="inlineStr">
+      <c r="P34" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024, 2023</t>
         </is>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="S34" s="4" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>August 12,2022</t>
         </is>
       </c>
-      <c r="T34" s="4" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr">
         <is>
           <t>August 19,2022</t>
         </is>
       </c>
-      <c r="U34" s="4" t="inlineStr">
+      <c r="U34" s="5" t="inlineStr">
         <is>
           <t>August 31,2022</t>
         </is>
       </c>
-      <c r="V34" s="4" t="inlineStr">
+      <c r="V34" s="5" t="inlineStr">
         <is>
           <t>October 14, 2022</t>
         </is>
       </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
         <is>
           <t>December 21, 2022</t>
         </is>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>Stellar JFS General Engineering and Construction</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Z34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>136020</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Cagaluan ES Annex (Da-o PS)</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="G35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH DETACHED TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>13755283.86324885</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>9168628.550000001</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5" t="n">
+      <c r="N35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="P35" s="5" t="n">
+      <c r="P35" s="6" t="n">
         <v>45547</v>
       </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="S35" s="4" t="inlineStr">
+      <c r="S35" s="5" t="inlineStr">
         <is>
           <t>July 6, 2023</t>
         </is>
       </c>
-      <c r="T35" s="4" t="inlineStr">
+      <c r="T35" s="5" t="inlineStr">
         <is>
           <t>July 13, 2023</t>
         </is>
       </c>
-      <c r="U35" s="4" t="inlineStr">
+      <c r="U35" s="5" t="inlineStr">
         <is>
           <t>July 24, 2023</t>
         </is>
       </c>
-      <c r="V35" s="4" t="inlineStr">
+      <c r="V35" s="5" t="inlineStr">
         <is>
           <t>September 19, 2023</t>
         </is>
       </c>
-      <c r="W35" s="4" t="inlineStr">
+      <c r="W35" s="5" t="inlineStr">
         <is>
           <t>October 25, 2023</t>
         </is>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>NIHK Construction Services</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Z35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>136188</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Latang Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>BARLIG</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="G36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE AND REPAIR OF TWO (2) CLASSROOM SCHOOL BUILDING.</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>32409555.98919023</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5" t="n">
         <v>32000000</v>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5" t="n">
+      <c r="N36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6" t="n">
         <v>45240</v>
       </c>
-      <c r="P36" s="4" t="inlineStr">
+      <c r="P36" s="5" t="inlineStr">
         <is>
           <t>January  26, 2024</t>
         </is>
       </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>INF-2022 LMS-003</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>INF-2022 LMS-003</t>
         </is>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="6" t="n">
         <v>44878</v>
       </c>
-      <c r="T36" s="5" t="n">
+      <c r="T36" s="6" t="n">
         <v>44900</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>44900</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="6" t="n">
         <v>44930</v>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>completed W/ time extension</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="Z36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>136334</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Belwang Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>SADANGA</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="G37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE AND REPAIR OF TWO (2) CLASSROOM SCHOOL BUILDING.</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>32899132.20874773</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>13427411.97</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5" t="n">
+      <c r="N37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6" t="n">
         <v>45337</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="P37" s="6" t="n">
         <v>45376</v>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="S37" s="5" t="n">
+      <c r="S37" s="6" t="n">
         <v>45048</v>
       </c>
-      <c r="T37" s="5" t="n">
+      <c r="T37" s="6" t="n">
         <v>45062</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="6" t="n">
         <v>45071</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="6" t="n">
         <v>45127</v>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>DANREV</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Z37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>136348</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Kilong Elementary School</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>SAGADA</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="G38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE AND REPAIR OF TWO (2) CLASSROOM SCHOOL BUILDING.</t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>34321745.87489972</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="5" t="n">
         <v>16945355.98</v>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="5" t="n">
+      <c r="N38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="6" t="n">
         <v>45390</v>
       </c>
-      <c r="P38" s="5" t="n">
+      <c r="P38" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="Q38" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="T38" s="5" t="n">
+      <c r="T38" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>45342</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="6" t="n">
         <v>45359</v>
       </c>
-      <c r="X38" s="4" t="inlineStr">
+      <c r="X38" s="5" t="inlineStr">
         <is>
           <t>RBEP</t>
         </is>
       </c>
-      <c r="Y38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="4" t="n"/>
+      <c r="Y38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>137049</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Callagan Elementary School</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="G39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m) AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>17836389.9806</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="5" t="n">
         <v>16943551</v>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="5" t="n">
+      <c r="N39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6" t="n">
         <v>45390</v>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="P39" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
+      <c r="Q39" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="R39" s="4" t="inlineStr">
+      <c r="R39" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="T39" s="5" t="n">
+      <c r="T39" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="U39" s="5" t="n">
+      <c r="U39" s="6" t="n">
         <v>45342</v>
       </c>
-      <c r="V39" s="5" t="n">
+      <c r="V39" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="W39" s="5" t="n">
+      <c r="W39" s="6" t="n">
         <v>45359</v>
       </c>
-      <c r="X39" s="4" t="inlineStr">
+      <c r="X39" s="5" t="inlineStr">
         <is>
           <t>RBEP</t>
         </is>
       </c>
-      <c r="Y39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="4" t="n"/>
+      <c r="Y39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>135187</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Lawigan PS</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>BOLINEY</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="G40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>11110000</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="5" t="n">
         <v>14152726.43</v>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="5" t="n">
+      <c r="N40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="6" t="n">
         <v>45447</v>
       </c>
-      <c r="P40" s="5" t="n">
+      <c r="P40" s="6" t="n">
         <v>45462</v>
       </c>
-      <c r="Q40" s="4" t="inlineStr">
+      <c r="Q40" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="R40" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S40" s="4" t="inlineStr">
+      <c r="S40" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T40" s="4" t="inlineStr">
+      <c r="T40" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U40" s="4" t="inlineStr">
+      <c r="U40" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="V40" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W40" s="4" t="inlineStr">
+      <c r="W40" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4" t="n"/>
+      <c r="Y40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>135047</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>Bacag ES</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>LACUB</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="n">
+      <c r="G41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>12120000</v>
       </c>
-      <c r="L41" s="4" t="n">
+      <c r="L41" s="5" t="n">
         <v>17116471.79</v>
       </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5" t="n">
+      <c r="N41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="6" t="n">
         <v>45710</v>
       </c>
-      <c r="P41" s="5" t="n">
+      <c r="P41" s="6" t="n">
         <v>45388</v>
       </c>
-      <c r="Q41" s="4" t="inlineStr">
+      <c r="Q41" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="R41" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S41" s="4" t="inlineStr">
+      <c r="S41" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T41" s="4" t="inlineStr">
+      <c r="T41" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U41" s="4" t="inlineStr">
+      <c r="U41" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V41" s="4" t="inlineStr">
+      <c r="V41" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W41" s="4" t="inlineStr">
+      <c r="W41" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X41" s="4" t="inlineStr">
+      <c r="X41" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4" t="n"/>
+      <c r="Y41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>135092</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>Barit ES</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>LUBA</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="n">
+      <c r="G42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="5" t="n">
         <v>10100000</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="L42" s="5" t="n">
         <v>17392036.74</v>
       </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="5" t="n">
+      <c r="N42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="6" t="n">
         <v>45402</v>
       </c>
-      <c r="P42" s="5" t="n">
+      <c r="P42" s="6" t="n">
         <v>45290</v>
       </c>
-      <c r="Q42" s="4" t="inlineStr">
+      <c r="Q42" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R42" s="4" t="inlineStr">
+      <c r="R42" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S42" s="4" t="inlineStr">
+      <c r="S42" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T42" s="4" t="inlineStr">
+      <c r="T42" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U42" s="4" t="inlineStr">
+      <c r="U42" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V42" s="4" t="inlineStr">
+      <c r="V42" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W42" s="4" t="inlineStr">
+      <c r="W42" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X42" s="4" t="inlineStr">
+      <c r="X42" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4" t="n"/>
+      <c r="Y42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>135168</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Abas ES</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="n">
+      <c r="G43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="5" t="n">
         <v>9090000</v>
       </c>
-      <c r="L43" s="4" t="n">
+      <c r="L43" s="5" t="n">
         <v>16780281.43</v>
       </c>
-      <c r="M43" s="4" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5" t="n">
+      <c r="N43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="P43" s="5" t="n">
+      <c r="P43" s="6" t="n">
         <v>45277</v>
       </c>
-      <c r="Q43" s="4" t="inlineStr">
+      <c r="Q43" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="R43" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S43" s="4" t="inlineStr">
+      <c r="S43" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T43" s="4" t="inlineStr">
+      <c r="T43" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U43" s="4" t="inlineStr">
+      <c r="U43" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V43" s="4" t="inlineStr">
+      <c r="V43" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W43" s="4" t="inlineStr">
+      <c r="W43" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X43" s="4" t="inlineStr">
+      <c r="X43" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="4" t="n"/>
+      <c r="Y43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>135184</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>Gangal Elementary School</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4" t="n">
+      <c r="G44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="5" t="n">
         <v>9090000</v>
       </c>
-      <c r="L44" s="4" t="n">
+      <c r="L44" s="5" t="n">
         <v>17364431.28</v>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5" t="n">
+      <c r="N44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="P44" s="5" t="n">
+      <c r="P44" s="6" t="n">
         <v>45277</v>
       </c>
-      <c r="Q44" s="4" t="inlineStr">
+      <c r="Q44" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R44" s="4" t="inlineStr">
+      <c r="R44" s="5" t="inlineStr">
         <is>
           <t>PB - Construction-2023-002</t>
         </is>
       </c>
-      <c r="S44" s="4" t="inlineStr">
+      <c r="S44" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T44" s="4" t="inlineStr">
+      <c r="T44" s="5" t="inlineStr">
         <is>
           <t>June 3,2023</t>
         </is>
       </c>
-      <c r="U44" s="4" t="inlineStr">
+      <c r="U44" s="5" t="inlineStr">
         <is>
           <t>June 13,2023</t>
         </is>
       </c>
-      <c r="V44" s="4" t="inlineStr">
+      <c r="V44" s="5" t="inlineStr">
         <is>
           <t>June 27,2023</t>
         </is>
       </c>
-      <c r="W44" s="4" t="inlineStr">
+      <c r="W44" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X44" s="4" t="inlineStr">
+      <c r="X44" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="4" t="n"/>
+      <c r="Y44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>135720</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>Baayan ES</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4" t="n">
+      <c r="G45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO(2) UNITS- ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="5" t="n">
         <v>23421679.46</v>
       </c>
-      <c r="L45" s="4" t="n">
+      <c r="L45" s="5" t="n">
         <v>22992313.95</v>
       </c>
-      <c r="M45" s="4" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="4" t="inlineStr">
+      <c r="N45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5" t="inlineStr">
         <is>
           <t>JULY 14, 2024</t>
         </is>
       </c>
-      <c r="P45" s="4" t="inlineStr">
+      <c r="P45" s="5" t="inlineStr">
         <is>
           <t>JULY 4, 2024</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr">
+      <c r="Q45" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-01</t>
         </is>
       </c>
-      <c r="R45" s="4" t="inlineStr">
+      <c r="R45" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-01</t>
         </is>
       </c>
-      <c r="S45" s="4" t="inlineStr">
+      <c r="S45" s="5" t="inlineStr">
         <is>
           <t>May 5, 2023</t>
         </is>
       </c>
-      <c r="T45" s="4" t="inlineStr">
+      <c r="T45" s="5" t="inlineStr">
         <is>
           <t>May 12, 2023</t>
         </is>
       </c>
-      <c r="U45" s="4" t="inlineStr">
+      <c r="U45" s="5" t="inlineStr">
         <is>
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="V45" s="5" t="n">
+      <c r="V45" s="6" t="n">
         <v>45177</v>
       </c>
-      <c r="W45" s="5" t="n">
+      <c r="W45" s="6" t="n">
         <v>45168</v>
       </c>
-      <c r="X45" s="4" t="inlineStr">
+      <c r="X45" s="5" t="inlineStr">
         <is>
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="4" t="n"/>
+      <c r="Y45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="5" t="n">
         <v>502340</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>Miguel Palispis Integrated School</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>TUBA</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4" t="n">
+      <c r="H46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM, SLOPE PROTECTION, REPAIR AND REHABILITATION OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="5" t="n">
         <v>27377352.57</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="5" t="n">
         <v>27107027.98</v>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="M46" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" s="4" t="inlineStr">
+      <c r="N46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5" t="inlineStr">
         <is>
           <t>FEBRUARY 5, 2025</t>
         </is>
       </c>
-      <c r="P46" s="4" t="inlineStr">
+      <c r="P46" s="5" t="inlineStr">
         <is>
           <t>MAY 29, 2025</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr">
+      <c r="Q46" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-306</t>
         </is>
       </c>
-      <c r="R46" s="4" t="inlineStr">
+      <c r="R46" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-306</t>
         </is>
       </c>
-      <c r="S46" s="4" t="inlineStr">
+      <c r="S46" s="5" t="inlineStr">
         <is>
           <t>December 01, 2023</t>
         </is>
       </c>
-      <c r="T46" s="4" t="inlineStr">
+      <c r="T46" s="5" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="U46" s="4" t="inlineStr">
+      <c r="U46" s="5" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="V46" s="5" t="n">
+      <c r="V46" s="6" t="n">
         <v>45334</v>
       </c>
-      <c r="W46" s="5" t="n">
+      <c r="W46" s="6" t="n">
         <v>45363</v>
       </c>
-      <c r="X46" s="4" t="inlineStr">
+      <c r="X46" s="5" t="inlineStr">
         <is>
           <t>HAIGHTS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="4" t="n"/>
+      <c r="Y46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="5" t="n">
         <v>135786</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E47" s="5" t="inlineStr">
         <is>
           <t>Ammoweg Elementary School</t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>ASIPULO</t>
         </is>
       </c>
-      <c r="G47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4" t="n">
+      <c r="G47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J47" s="4" t="inlineStr">
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) &amp; TWO(2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM AND PERIMETER FENCE (ONE BAY, 3.0M)</t>
         </is>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="K47" s="5" t="n">
         <v>26101571.53</v>
       </c>
-      <c r="L47" s="4" t="n">
+      <c r="L47" s="5" t="n">
         <v>12980986.68</v>
       </c>
-      <c r="M47" s="4" t="inlineStr">
+      <c r="M47" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="5" t="n">
+      <c r="N47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="6" t="n">
         <v>45452</v>
       </c>
-      <c r="P47" s="5" t="n">
+      <c r="P47" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="4" t="inlineStr">
+      <c r="Q47" s="5" t="inlineStr"/>
+      <c r="R47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5" t="inlineStr">
         <is>
           <t>June 23, 2023</t>
         </is>
       </c>
-      <c r="T47" s="4" t="inlineStr">
+      <c r="T47" s="5" t="inlineStr">
         <is>
           <t>June 30, 2023</t>
         </is>
       </c>
-      <c r="U47" s="4" t="inlineStr">
+      <c r="U47" s="5" t="inlineStr">
         <is>
           <t>July 12, 2023</t>
         </is>
       </c>
-      <c r="V47" s="4" t="inlineStr">
+      <c r="V47" s="5" t="inlineStr">
         <is>
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W47" s="5" t="n">
+      <c r="W47" s="6" t="n">
         <v>45173</v>
       </c>
-      <c r="X47" s="4" t="inlineStr">
+      <c r="X47" s="5" t="inlineStr">
         <is>
           <t>Matt Glass/Aluminum/Construction Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Y47" s="4" t="inlineStr">
+      <c r="Y47" s="5" t="inlineStr">
         <is>
           <t>w/ time extension due to shearline</t>
         </is>
       </c>
-      <c r="Z47" s="4" t="n"/>
+      <c r="Z47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="5" t="n">
         <v>136022</v>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E48" s="5" t="inlineStr">
         <is>
           <t>Colayo Elementary School</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4" t="n">
+      <c r="G48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J48" s="4" t="inlineStr">
+      <c r="J48" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM.</t>
         </is>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="K48" s="5" t="n">
         <v>24632636.5</v>
       </c>
-      <c r="L48" s="4" t="n">
+      <c r="L48" s="5" t="n">
         <v>12370674.27</v>
       </c>
-      <c r="M48" s="4" t="inlineStr">
+      <c r="M48" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="5" t="n">
+      <c r="N48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6" t="n">
         <v>45452</v>
       </c>
-      <c r="P48" s="5" t="n">
+      <c r="P48" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
+      <c r="Q48" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="R48" s="4" t="inlineStr">
+      <c r="R48" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="S48" s="5" t="inlineStr">
         <is>
           <t>June 23, 2023</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr">
+      <c r="T48" s="5" t="inlineStr">
         <is>
           <t>June 30, 2023</t>
         </is>
       </c>
-      <c r="U48" s="4" t="inlineStr">
+      <c r="U48" s="5" t="inlineStr">
         <is>
           <t>July 12, 2023</t>
         </is>
       </c>
-      <c r="V48" s="4" t="inlineStr">
+      <c r="V48" s="5" t="inlineStr">
         <is>
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W48" s="5" t="n">
+      <c r="W48" s="6" t="n">
         <v>45173</v>
       </c>
-      <c r="X48" s="4" t="inlineStr">
+      <c r="X48" s="5" t="inlineStr">
         <is>
           <t>Matt Glass/Aluminum/Construction Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Y48" s="4" t="inlineStr">
+      <c r="Y48" s="5" t="inlineStr">
         <is>
           <t>w/ time extension due to shearline</t>
         </is>
       </c>
-      <c r="Z48" s="4" t="n"/>
+      <c r="Z48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="5" t="n">
         <v>136233</v>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>Ambagiw Elementary School</t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>BESAO</t>
         </is>
       </c>
-      <c r="G49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4" t="n">
+      <c r="G49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J49" s="4" t="inlineStr">
+      <c r="J49" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE</t>
         </is>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="K49" s="5" t="n">
         <v>37084540.17</v>
       </c>
-      <c r="L49" s="4" t="n">
+      <c r="L49" s="5" t="n">
         <v>12174043.03</v>
       </c>
-      <c r="M49" s="4" t="inlineStr">
+      <c r="M49" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="5" t="n">
+      <c r="N49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="6" t="n">
         <v>45452</v>
       </c>
-      <c r="P49" s="5" t="n">
+      <c r="P49" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="Q49" s="4" t="inlineStr">
+      <c r="Q49" s="5" t="inlineStr">
         <is>
           <t>INF-2023 LMS-001</t>
         </is>
       </c>
-      <c r="R49" s="4" t="inlineStr">
+      <c r="R49" s="5" t="inlineStr">
         <is>
           <t>INF-2023 LMS-001</t>
         </is>
       </c>
-      <c r="S49" s="4" t="inlineStr">
+      <c r="S49" s="5" t="inlineStr">
         <is>
           <t>June 23, 2023</t>
         </is>
       </c>
-      <c r="T49" s="4" t="inlineStr">
+      <c r="T49" s="5" t="inlineStr">
         <is>
           <t>June 30, 2023</t>
         </is>
       </c>
-      <c r="U49" s="4" t="inlineStr">
+      <c r="U49" s="5" t="inlineStr">
         <is>
           <t>July 12, 2023</t>
         </is>
       </c>
-      <c r="V49" s="4" t="inlineStr">
+      <c r="V49" s="5" t="inlineStr">
         <is>
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W49" s="5" t="n">
+      <c r="W49" s="6" t="n">
         <v>45173</v>
       </c>
-      <c r="X49" s="4" t="inlineStr">
+      <c r="X49" s="5" t="inlineStr">
         <is>
           <t>Matt Glass/Aluminum/Construction Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Y49" s="4" t="inlineStr">
+      <c r="Y49" s="5" t="inlineStr">
         <is>
           <t>w/ time extension due to shearline</t>
         </is>
       </c>
-      <c r="Z49" s="4" t="n"/>
+      <c r="Z49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="5" t="n">
         <v>220523</v>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t>Cataw Primary School</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4" t="n">
+      <c r="H50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J50" s="4" t="inlineStr">
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, FLAG POLE, PERIMETER FENCE, GATE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="K50" s="5" t="n">
         <v>23450515.55</v>
       </c>
-      <c r="L50" s="4" t="n">
+      <c r="L50" s="5" t="n">
         <v>23213776.25</v>
       </c>
-      <c r="M50" s="4" t="inlineStr">
+      <c r="M50" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="4" t="inlineStr">
+      <c r="N50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="P50" s="5" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr">
+      <c r="Q50" s="5" t="inlineStr">
         <is>
           <t>1-2023-3</t>
         </is>
       </c>
-      <c r="R50" s="4" t="inlineStr">
+      <c r="R50" s="5" t="inlineStr">
         <is>
           <t>1-2023-3</t>
         </is>
       </c>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="S50" s="5" t="inlineStr">
         <is>
           <t>October 19- November 10, 2023</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr">
+      <c r="T50" s="5" t="inlineStr">
         <is>
           <t>October 27, 2023 @ 1:31pm</t>
         </is>
       </c>
-      <c r="U50" s="4" t="inlineStr">
+      <c r="U50" s="5" t="inlineStr">
         <is>
           <t>November 10, 2023 @ 1:31pm</t>
         </is>
       </c>
-      <c r="V50" s="4" t="inlineStr">
+      <c r="V50" s="5" t="inlineStr">
         <is>
           <t>November 30, 2023</t>
         </is>
       </c>
-      <c r="W50" s="4" t="inlineStr">
+      <c r="W50" s="5" t="inlineStr">
         <is>
           <t>December 20, 2023</t>
         </is>
       </c>
-      <c r="X50" s="4" t="inlineStr">
+      <c r="X50" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="4" t="n"/>
+      <c r="Y50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="5" t="n">
         <v>305090</v>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>Mataragan NAS</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>MALIBCONG</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4" t="n">
+      <c r="H51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K51" s="4" t="n">
+      <c r="K51" s="5" t="n">
         <v>9889180.890000001</v>
       </c>
-      <c r="L51" s="4" t="n">
+      <c r="L51" s="5" t="n">
         <v>9770516.9</v>
       </c>
-      <c r="M51" s="4" t="inlineStr">
+      <c r="M51" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="4" t="inlineStr">
+      <c r="N51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5" t="inlineStr">
         <is>
           <t>May 13, 2025</t>
         </is>
       </c>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="P51" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">May  17, 2025
  </t>
         </is>
       </c>
-      <c r="Q51" s="4" t="inlineStr">
+      <c r="Q51" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-005</t>
         </is>
       </c>
-      <c r="R51" s="4" t="inlineStr">
+      <c r="R51" s="5" t="inlineStr">
         <is>
           <t>2024-07-011</t>
         </is>
       </c>
-      <c r="S51" s="4" t="inlineStr">
+      <c r="S51" s="5" t="inlineStr">
         <is>
           <t>June15, 2024</t>
         </is>
       </c>
-      <c r="T51" s="4" t="inlineStr">
+      <c r="T51" s="5" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U51" s="4" t="inlineStr">
+      <c r="U51" s="5" t="inlineStr">
         <is>
           <t>July 03, 2024</t>
         </is>
       </c>
-      <c r="V51" s="4" t="inlineStr">
+      <c r="V51" s="5" t="inlineStr">
         <is>
           <t>July 12, 2024</t>
         </is>
       </c>
-      <c r="W51" s="4" t="inlineStr">
+      <c r="W51" s="5" t="inlineStr">
         <is>
           <t>September 3, 2024</t>
         </is>
       </c>
-      <c r="X51" s="4" t="inlineStr">
+      <c r="X51" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y51" s="4" t="inlineStr"/>
-      <c r="Z51" s="4" t="n"/>
+      <c r="Y51" s="5" t="inlineStr"/>
+      <c r="Z51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="5" t="n">
         <v>305104</v>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>Tineg National High School</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>TINEG</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4" t="n">
+      <c r="H52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K52" s="4" t="n">
+      <c r="K52" s="5" t="n">
         <v>9742716.24</v>
       </c>
-      <c r="L52" s="4" t="n">
+      <c r="L52" s="5" t="n">
         <v>9626000.220000001</v>
       </c>
-      <c r="M52" s="4" t="inlineStr">
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N52" s="4" t="n">
+      <c r="N52" s="5" t="n">
         <v>0.796</v>
       </c>
-      <c r="O52" s="4" t="inlineStr">
+      <c r="O52" s="5" t="inlineStr">
         <is>
           <t>May 13, 2025</t>
         </is>
       </c>
-      <c r="P52" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q52" s="4" t="inlineStr">
+      <c r="P52" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q52" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-005</t>
         </is>
       </c>
-      <c r="R52" s="4" t="inlineStr">
+      <c r="R52" s="5" t="inlineStr">
         <is>
           <t>2024-07-011</t>
         </is>
       </c>
-      <c r="S52" s="4" t="inlineStr">
+      <c r="S52" s="5" t="inlineStr">
         <is>
           <t>June15, 2024</t>
         </is>
       </c>
-      <c r="T52" s="4" t="inlineStr">
+      <c r="T52" s="5" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U52" s="4" t="inlineStr">
+      <c r="U52" s="5" t="inlineStr">
         <is>
           <t>July 03, 2024</t>
         </is>
       </c>
-      <c r="V52" s="4" t="inlineStr">
+      <c r="V52" s="5" t="inlineStr">
         <is>
           <t>July 12, 2024</t>
         </is>
       </c>
-      <c r="W52" s="4" t="inlineStr">
+      <c r="W52" s="5" t="inlineStr">
         <is>
           <t>September 3, 2024</t>
         </is>
       </c>
-      <c r="X52" s="4" t="inlineStr">
+      <c r="X52" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y52" s="4" t="inlineStr">
+      <c r="Y52" s="5" t="inlineStr">
         <is>
           <t>suspended due to inaccesibility of roads</t>
         </is>
       </c>
-      <c r="Z52" s="4" t="n"/>
+      <c r="Z52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="5" t="n">
         <v>135242</v>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t>Namaltugan ES</t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>CALANASAN (BAYAG)</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4" t="n">
+      <c r="H53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J53" s="4" t="inlineStr">
+      <c r="J53" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K53" s="4" t="n">
+      <c r="K53" s="5" t="n">
         <v>12848533.6</v>
       </c>
-      <c r="L53" s="4" t="n">
+      <c r="L53" s="5" t="n">
         <v>11097515.65</v>
       </c>
-      <c r="M53" s="4" t="inlineStr">
+      <c r="M53" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" s="4" t="inlineStr">
+      <c r="N53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5" t="inlineStr">
         <is>
           <t>January 22,2025</t>
         </is>
       </c>
-      <c r="P53" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q53" s="4" t="inlineStr">
+      <c r="P53" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q53" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-002</t>
         </is>
       </c>
-      <c r="R53" s="4" t="inlineStr"/>
-      <c r="S53" s="4" t="inlineStr">
+      <c r="R53" s="5" t="inlineStr"/>
+      <c r="S53" s="5" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr">
+      <c r="T53" s="5" t="inlineStr">
         <is>
           <t>January 5,2024</t>
         </is>
       </c>
-      <c r="U53" s="4" t="inlineStr">
+      <c r="U53" s="5" t="inlineStr">
         <is>
           <t>January 22,2024</t>
         </is>
       </c>
-      <c r="V53" s="4" t="inlineStr">
+      <c r="V53" s="5" t="inlineStr">
         <is>
           <t>February 7,2024</t>
         </is>
       </c>
-      <c r="W53" s="4" t="inlineStr">
+      <c r="W53" s="5" t="inlineStr">
         <is>
           <t>June 17,2024</t>
         </is>
       </c>
-      <c r="X53" s="4" t="inlineStr">
+      <c r="X53" s="5" t="inlineStr">
         <is>
           <t>J.G. Yacas Construction,Supply and Equipment Rentals</t>
         </is>
       </c>
-      <c r="Y53" s="4" t="inlineStr">
+      <c r="Y53" s="5" t="inlineStr">
         <is>
           <t>ongoing correction of punchlist</t>
         </is>
       </c>
-      <c r="Z53" s="4" t="n"/>
+      <c r="Z53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="5" t="n">
         <v>135257</v>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t>Caglayan ES</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>CONNER</t>
         </is>
       </c>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4" t="n">
+      <c r="H54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J54" s="4" t="inlineStr">
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K54" s="4" t="n">
+      <c r="K54" s="5" t="n">
         <v>11380362.07</v>
       </c>
-      <c r="L54" s="4" t="n">
+      <c r="L54" s="5" t="n">
         <v>12529250.6</v>
       </c>
-      <c r="M54" s="4" t="inlineStr">
+      <c r="M54" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" s="4" t="inlineStr">
+      <c r="N54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5" t="inlineStr">
         <is>
           <t>January 17,2025</t>
         </is>
       </c>
-      <c r="P54" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q54" s="4" t="inlineStr">
+      <c r="P54" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q54" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-001</t>
         </is>
       </c>
-      <c r="R54" s="4" t="inlineStr"/>
-      <c r="S54" s="4" t="inlineStr">
+      <c r="R54" s="5" t="inlineStr"/>
+      <c r="S54" s="5" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
         </is>
       </c>
-      <c r="T54" s="4" t="inlineStr">
+      <c r="T54" s="5" t="inlineStr">
         <is>
           <t>January 5,2024</t>
         </is>
       </c>
-      <c r="U54" s="4" t="inlineStr">
+      <c r="U54" s="5" t="inlineStr">
         <is>
           <t>January 22,2024</t>
         </is>
       </c>
-      <c r="V54" s="4" t="inlineStr">
+      <c r="V54" s="5" t="inlineStr">
         <is>
           <t>February 7,2024</t>
         </is>
       </c>
-      <c r="W54" s="4" t="inlineStr">
+      <c r="W54" s="5" t="inlineStr">
         <is>
           <t>June 17,2024</t>
         </is>
       </c>
-      <c r="X54" s="4" t="inlineStr">
+      <c r="X54" s="5" t="inlineStr">
         <is>
           <t>J.G. Yacas Construction,Supply and Equipment Rentals</t>
         </is>
       </c>
-      <c r="Y54" s="4" t="inlineStr">
+      <c r="Y54" s="5" t="inlineStr">
         <is>
           <t>ongoing correction of punchlist</t>
         </is>
       </c>
-      <c r="Z54" s="4" t="n"/>
+      <c r="Z54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="5" t="n">
         <v>135684</v>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>Yabyabuan MG School</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>SABLAN</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4" t="n">
+      <c r="H55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J55" s="4" t="inlineStr">
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND SITE DEVELOPMENT</t>
         </is>
       </c>
-      <c r="K55" s="4" t="n">
+      <c r="K55" s="5" t="n">
         <v>18336389.21</v>
       </c>
-      <c r="L55" s="4" t="n">
+      <c r="L55" s="5" t="n">
         <v>17444882.84</v>
       </c>
-      <c r="M55" s="4" t="inlineStr">
+      <c r="M55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" s="5" t="n">
+      <c r="N55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="6" t="n">
         <v>45679</v>
       </c>
-      <c r="P55" s="5" t="n">
+      <c r="P55" s="6" t="n">
         <v>45672</v>
       </c>
-      <c r="Q55" s="4" t="inlineStr">
+      <c r="Q55" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-02</t>
         </is>
       </c>
-      <c r="R55" s="4" t="inlineStr">
+      <c r="R55" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-02</t>
         </is>
       </c>
-      <c r="S55" s="5" t="n">
+      <c r="S55" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T55" s="5" t="n">
+      <c r="T55" s="6" t="n">
         <v>45273</v>
       </c>
-      <c r="U55" s="5" t="n">
+      <c r="U55" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="V55" s="5" t="n">
+      <c r="V55" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="W55" s="5" t="n">
+      <c r="W55" s="6" t="n">
         <v>45439</v>
       </c>
-      <c r="X55" s="4" t="inlineStr">
+      <c r="X55" s="5" t="inlineStr">
         <is>
           <t>MANIMELDS CONSTRUCTION AND IRON WORKS</t>
         </is>
       </c>
-      <c r="Y55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="4" t="n"/>
+      <c r="Y55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="5" t="n">
         <v>135685</v>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>Andolor ES</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>TUBA</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4" t="n">
+      <c r="H56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND SITE DEVELOPMENT</t>
         </is>
       </c>
-      <c r="K56" s="4" t="n">
+      <c r="K56" s="5" t="n">
         <v>15677245.35</v>
       </c>
-      <c r="L56" s="4" t="n">
+      <c r="L56" s="5" t="n">
         <v>14458792.44</v>
       </c>
-      <c r="M56" s="4" t="inlineStr">
+      <c r="M56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" s="5" t="n">
+      <c r="N56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="6" t="n">
         <v>45673</v>
       </c>
-      <c r="P56" s="5" t="n">
+      <c r="P56" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q56" s="4" t="inlineStr">
+      <c r="Q56" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-01</t>
         </is>
       </c>
-      <c r="R56" s="4" t="inlineStr">
+      <c r="R56" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-01</t>
         </is>
       </c>
-      <c r="S56" s="5" t="n">
+      <c r="S56" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T56" s="5" t="n">
+      <c r="T56" s="6" t="n">
         <v>45273</v>
       </c>
-      <c r="U56" s="5" t="n">
+      <c r="U56" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="V56" s="5" t="n">
+      <c r="V56" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="W56" s="5" t="n">
+      <c r="W56" s="6" t="n">
         <v>45433</v>
       </c>
-      <c r="X56" s="4" t="inlineStr">
+      <c r="X56" s="5" t="inlineStr">
         <is>
           <t>KAIT BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="4" t="n"/>
+      <c r="Y56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="5" t="n">
         <v>135753</v>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>Halag E/S - Halag 3 (Riverside)</t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>AGUINALDO</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4" t="n">
+      <c r="H57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J57" s="4" t="inlineStr">
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY TWO (2)  (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, WATER SYSTEM, SLOPE PROTECTION AND PERIMETER FENCE (ONE BAY=3.0M)</t>
         </is>
       </c>
-      <c r="K57" s="4" t="n">
+      <c r="K57" s="5" t="n">
         <v>16279751.9</v>
       </c>
-      <c r="L57" s="4" t="n">
+      <c r="L57" s="5" t="n">
         <v>15802017.06</v>
       </c>
-      <c r="M57" s="4" t="inlineStr">
+      <c r="M57" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N57" s="4" t="n">
+      <c r="N57" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="O57" s="5" t="n">
+      <c r="O57" s="6" t="n">
         <v>45814</v>
       </c>
-      <c r="P57" s="5" t="n">
+      <c r="P57" s="6" t="n">
         <v>45810</v>
       </c>
-      <c r="Q57" s="4" t="inlineStr"/>
-      <c r="R57" s="4" t="inlineStr">
+      <c r="Q57" s="5" t="inlineStr"/>
+      <c r="R57" s="5" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="S57" s="5" t="n">
+      <c r="S57" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="T57" s="5" t="n">
+      <c r="T57" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="U57" s="5" t="n">
+      <c r="U57" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V57" s="5" t="n">
+      <c r="V57" s="6" t="n">
         <v>45293</v>
       </c>
-      <c r="W57" s="5" t="n">
+      <c r="W57" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="X57" s="4" t="inlineStr">
+      <c r="X57" s="5" t="inlineStr">
         <is>
           <t>MR-G Construction</t>
         </is>
       </c>
-      <c r="Y57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="4" t="n"/>
+      <c r="Y57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="5" t="n">
         <v>135912</v>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E58" s="5" t="inlineStr">
         <is>
           <t>Pulaan PS</t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>LAMUT</t>
         </is>
       </c>
-      <c r="G58" s="4" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4" t="n">
+      <c r="H58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J58" s="4" t="inlineStr">
+      <c r="J58" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY FOUR (4)  (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, WATER SYSTEM,CONCRETE PAVEMENT AND PERIMETER FENCE (ONE BAY=3.0M)</t>
         </is>
       </c>
-      <c r="K58" s="4" t="n">
+      <c r="K58" s="5" t="n">
         <v>18781299.1</v>
       </c>
-      <c r="L58" s="4" t="n">
+      <c r="L58" s="5" t="n">
         <v>17620179.52</v>
       </c>
-      <c r="M58" s="4" t="inlineStr">
+      <c r="M58" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N58" s="4" t="n">
+      <c r="N58" s="5" t="n">
         <v>0.73</v>
       </c>
-      <c r="O58" s="5" t="n">
+      <c r="O58" s="6" t="n">
         <v>45814</v>
       </c>
-      <c r="P58" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q58" s="4" t="inlineStr"/>
-      <c r="R58" s="4" t="inlineStr">
+      <c r="P58" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q58" s="5" t="inlineStr"/>
+      <c r="R58" s="5" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="S58" s="5" t="n">
+      <c r="S58" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="T58" s="5" t="n">
+      <c r="T58" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="U58" s="5" t="n">
+      <c r="U58" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V58" s="5" t="n">
+      <c r="V58" s="6" t="n">
         <v>45309</v>
       </c>
-      <c r="W58" s="5" t="n">
+      <c r="W58" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="X58" s="4" t="inlineStr">
+      <c r="X58" s="5" t="inlineStr">
         <is>
           <t>Al Muhandis Construction</t>
         </is>
       </c>
-      <c r="Y58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="4" t="n"/>
+      <c r="Y58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="5" t="n">
         <v>136052</v>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>Taggay Elementary School</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>PINUKPUK</t>
         </is>
       </c>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4" t="n">
+      <c r="H59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, WATER SYSTEM AND SITE LEVELING/IMPROVEMENT</t>
         </is>
       </c>
-      <c r="K59" s="4" t="n">
+      <c r="K59" s="5" t="n">
         <v>17317546.86</v>
       </c>
-      <c r="L59" s="4" t="n">
+      <c r="L59" s="5" t="n">
         <v>16893904.27</v>
       </c>
-      <c r="M59" s="4" t="inlineStr">
+      <c r="M59" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N59" s="4" t="n">
+      <c r="N59" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O59" s="4" t="inlineStr">
+      <c r="O59" s="5" t="inlineStr">
         <is>
           <t>March 19, 2025</t>
         </is>
       </c>
-      <c r="P59" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q59" s="4" t="inlineStr">
+      <c r="P59" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q59" s="5" t="inlineStr">
         <is>
           <t>LMS 2024-CAR-KALINA-001</t>
         </is>
       </c>
-      <c r="R59" s="4" t="inlineStr">
+      <c r="R59" s="5" t="inlineStr">
         <is>
           <t>LMS 2024-CAR-KALINA-001</t>
         </is>
       </c>
-      <c r="S59" s="4" t="inlineStr">
+      <c r="S59" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="T59" s="4" t="inlineStr">
+      <c r="T59" s="5" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="U59" s="4" t="inlineStr">
+      <c r="U59" s="5" t="inlineStr">
         <is>
           <t>December 19, 2023</t>
         </is>
       </c>
-      <c r="V59" s="4" t="inlineStr">
+      <c r="V59" s="5" t="inlineStr">
         <is>
           <t>February 5, 2024</t>
         </is>
       </c>
-      <c r="W59" s="4" t="inlineStr">
+      <c r="W59" s="5" t="inlineStr">
         <is>
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="X59" s="4" t="inlineStr">
+      <c r="X59" s="5" t="inlineStr">
         <is>
           <t>Mighty Stellar Development Construction</t>
         </is>
       </c>
-      <c r="Y59" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="4" t="n"/>
+      <c r="Y59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="7" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="5" t="n">
         <v>136064</v>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t>Liwan West Annex (Alibangbang PS)</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>RIZAL (LIWAN)</t>
         </is>
       </c>
-      <c r="G60" s="4" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="4" t="n">
+      <c r="H60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J60" s="4" t="inlineStr">
+      <c r="J60" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH OUT TOILET) WITH PROVISION OF WATER AND SANITATION FACILITIES (4-SEATER), SCHOOL FURNITURE, SOLAR ENERGY SYSTEM AND PEREMETER FENCE </t>
         </is>
       </c>
-      <c r="K60" s="4" t="n">
+      <c r="K60" s="5" t="n">
         <v>19599915.89</v>
       </c>
-      <c r="L60" s="4" t="n">
+      <c r="L60" s="5" t="n">
         <v>19115517.14</v>
       </c>
-      <c r="M60" s="4" t="inlineStr">
+      <c r="M60" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N60" s="4" t="n">
+      <c r="N60" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O60" s="4" t="inlineStr">
+      <c r="O60" s="5" t="inlineStr">
         <is>
           <t>April 7, 2025</t>
         </is>
       </c>
-      <c r="P60" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q60" s="4" t="inlineStr">
+      <c r="P60" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q60" s="5" t="inlineStr">
         <is>
           <t>LMS 2024-CAR-KALINA-002</t>
         </is>
       </c>
-      <c r="R60" s="4" t="inlineStr">
+      <c r="R60" s="5" t="inlineStr">
         <is>
           <t>LMS 2024-CAR-KALINA-002</t>
         </is>
       </c>
-      <c r="S60" s="4" t="inlineStr">
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="T60" s="4" t="inlineStr">
+      <c r="T60" s="5" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="U60" s="4" t="inlineStr">
+      <c r="U60" s="5" t="inlineStr">
         <is>
           <t>December 19, 2023</t>
         </is>
       </c>
-      <c r="V60" s="4" t="inlineStr">
+      <c r="V60" s="5" t="inlineStr">
         <is>
           <t>January 30, 2024</t>
         </is>
       </c>
-      <c r="W60" s="4" t="inlineStr">
+      <c r="W60" s="5" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="X60" s="4" t="inlineStr">
+      <c r="X60" s="5" t="inlineStr">
         <is>
           <t>CNL Construction</t>
         </is>
       </c>
-      <c r="Y60" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="4" t="n"/>
+      <c r="Y60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="5" t="n">
         <v>136308</v>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t>Natta'longan Elementary School</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4" t="n">
+      <c r="H61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J61" s="4" t="inlineStr">
+      <c r="J61" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (ELEVATED) (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K61" s="4" t="n">
+      <c r="K61" s="5" t="n">
         <v>50525998.85</v>
       </c>
-      <c r="L61" s="4" t="n">
+      <c r="L61" s="5" t="n">
         <v>49519489.88</v>
       </c>
-      <c r="M61" s="4" t="inlineStr">
+      <c r="M61" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N61" s="4" t="n">
+      <c r="N61" s="5" t="n">
         <v>0.76</v>
       </c>
-      <c r="O61" s="5" t="n">
+      <c r="O61" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="P61" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q61" s="4" t="inlineStr">
+      <c r="P61" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q61" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023 -007</t>
         </is>
       </c>
-      <c r="R61" s="4" t="inlineStr">
+      <c r="R61" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023 -007</t>
         </is>
       </c>
-      <c r="S61" s="4" t="inlineStr">
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>November 25, 2023</t>
         </is>
       </c>
-      <c r="T61" s="4" t="inlineStr">
+      <c r="T61" s="5" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="U61" s="4" t="inlineStr">
+      <c r="U61" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="V61" s="4" t="inlineStr">
+      <c r="V61" s="5" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W61" s="5" t="n">
+      <c r="W61" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="X61" s="4" t="inlineStr">
+      <c r="X61" s="5" t="inlineStr">
         <is>
           <t>APO General Construction</t>
         </is>
       </c>
-      <c r="Y61" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="4" t="n"/>
+      <c r="Y61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="5" t="n">
         <v>136331</v>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="E62" s="5" t="inlineStr">
         <is>
           <t>Tambingan Elementary School</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>SABANGAN</t>
         </is>
       </c>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4" t="n">
+      <c r="H62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J62" s="4" t="inlineStr">
+      <c r="J62" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K62" s="4" t="n">
+      <c r="K62" s="5" t="n">
         <v>51045855.22</v>
       </c>
-      <c r="L62" s="4" t="n">
+      <c r="L62" s="5" t="n">
         <v>50030042.7</v>
       </c>
-      <c r="M62" s="4" t="inlineStr">
+      <c r="M62" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N62" s="4" t="n">
+      <c r="N62" s="5" t="n">
         <v>0.82</v>
       </c>
-      <c r="O62" s="5" t="n">
+      <c r="O62" s="6" t="n">
         <v>45808</v>
       </c>
-      <c r="P62" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q62" s="4" t="inlineStr">
+      <c r="P62" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q62" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023 -008</t>
         </is>
       </c>
-      <c r="R62" s="4" t="inlineStr">
+      <c r="R62" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023 -008</t>
         </is>
       </c>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="S62" s="5" t="inlineStr">
         <is>
           <t>November 25, 2023</t>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
+      <c r="T62" s="5" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="U62" s="4" t="inlineStr">
+      <c r="U62" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="V62" s="4" t="inlineStr">
+      <c r="V62" s="5" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W62" s="5" t="n">
+      <c r="W62" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="X62" s="4" t="inlineStr">
+      <c r="X62" s="5" t="inlineStr">
         <is>
           <t>FB Bantales Eng'g &amp; Const'n</t>
         </is>
       </c>
-      <c r="Y62" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="4" t="n"/>
+      <c r="Y62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="5" t="n">
         <v>220525</v>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="E63" s="5" t="inlineStr">
         <is>
           <t>BURAYUKAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4" t="n">
+      <c r="H63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J63" s="4" t="inlineStr">
+      <c r="J63" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE, SlOPE PROTECTION, SCHOOL GATE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K63" s="4" t="n">
+      <c r="K63" s="5" t="n">
         <v>26997429.04</v>
       </c>
-      <c r="L63" s="4" t="n">
+      <c r="L63" s="5" t="n">
         <v>26751878.94</v>
       </c>
-      <c r="M63" s="4" t="inlineStr">
+      <c r="M63" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" s="4" t="inlineStr">
+      <c r="N63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5" t="inlineStr">
         <is>
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P63" s="5" t="n">
+      <c r="P63" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="Q63" s="4" t="inlineStr">
+      <c r="Q63" s="5" t="inlineStr">
         <is>
           <t>I-2023-4</t>
         </is>
       </c>
-      <c r="R63" s="4" t="inlineStr">
+      <c r="R63" s="5" t="inlineStr">
         <is>
           <t>I-2023-4</t>
         </is>
       </c>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="S63" s="5" t="inlineStr">
         <is>
           <t>December 2 - December 21, 2023</t>
         </is>
       </c>
-      <c r="T63" s="4" t="inlineStr">
+      <c r="T63" s="5" t="inlineStr">
         <is>
           <t>December 8, 2023 @ 8:00pm</t>
         </is>
       </c>
-      <c r="U63" s="4" t="inlineStr">
+      <c r="U63" s="5" t="inlineStr">
         <is>
           <t>December 21, 2023 @ 10:00am</t>
         </is>
       </c>
-      <c r="V63" s="4" t="inlineStr">
+      <c r="V63" s="5" t="inlineStr">
         <is>
           <t>January 22, 2024</t>
         </is>
       </c>
-      <c r="W63" s="4" t="inlineStr">
+      <c r="W63" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X63" s="4" t="inlineStr">
+      <c r="X63" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="4" t="n"/>
+      <c r="Y63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="5" t="n">
         <v>136111</v>
       </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="E64" s="5" t="inlineStr">
         <is>
           <t>SOTTO ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="4" t="n">
+      <c r="H64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J64" s="4" t="inlineStr">
+      <c r="J64" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE, SlOPE PROTECTION, SCHOOL GATE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K64" s="4" t="n">
+      <c r="K64" s="5" t="n">
         <v>24327074.03</v>
       </c>
-      <c r="L64" s="4" t="n">
+      <c r="L64" s="5" t="n">
         <v>24078626.44</v>
       </c>
-      <c r="M64" s="4" t="inlineStr">
+      <c r="M64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" s="4" t="inlineStr">
+      <c r="N64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5" t="inlineStr">
         <is>
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P64" s="5" t="n">
+      <c r="P64" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="Q64" s="4" t="inlineStr">
+      <c r="Q64" s="5" t="inlineStr">
         <is>
           <t>I-2024-I</t>
         </is>
       </c>
-      <c r="R64" s="4" t="inlineStr">
+      <c r="R64" s="5" t="inlineStr">
         <is>
           <t>I-2024-I</t>
         </is>
       </c>
-      <c r="S64" s="4" t="inlineStr">
+      <c r="S64" s="5" t="inlineStr">
         <is>
           <t>January 3 - January 22, 2024</t>
         </is>
       </c>
-      <c r="T64" s="4" t="inlineStr">
+      <c r="T64" s="5" t="inlineStr">
         <is>
           <t>January 10, 2024 @ 10:00am</t>
         </is>
       </c>
-      <c r="U64" s="4" t="inlineStr">
+      <c r="U64" s="5" t="inlineStr">
         <is>
           <t>January 22, 2024 @ 1:00pm</t>
         </is>
       </c>
-      <c r="V64" s="4" t="inlineStr">
+      <c r="V64" s="5" t="inlineStr">
         <is>
           <t>January 26, 2024</t>
         </is>
       </c>
-      <c r="W64" s="4" t="inlineStr">
+      <c r="W64" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X64" s="4" t="inlineStr">
+      <c r="X64" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y64" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="4" t="n"/>
+      <c r="Y64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/CAR/CAR_LMS.xlsx
+++ b/Filtered_By_Region/CAR/CAR_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/CAR/CAR_LMS.xlsx
+++ b/Filtered_By_Region/CAR/CAR_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,611 +453,627 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="466" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="466" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="28" customWidth="1" min="18" max="18"/>
-    <col width="32" customWidth="1" min="19" max="19"/>
-    <col width="28" customWidth="1" min="20" max="20"/>
-    <col width="29" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="61" customWidth="1" min="24" max="24"/>
-    <col width="163" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="28" customWidth="1" min="19" max="19"/>
+    <col width="32" customWidth="1" min="20" max="20"/>
+    <col width="28" customWidth="1" min="21" max="21"/>
+    <col width="29" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="61" customWidth="1" min="25" max="25"/>
+    <col width="163" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>135114</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Tillilo PS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>LUBA</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOIL PROTECTION, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>18778535.1102</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>18761650.97</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44693</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="Q2" s="6" t="n">
         <v>44663</v>
       </c>
-      <c r="Q2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-07</t>
         </is>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="T2" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Lonnie Construction/Lonnie Moun B.Quilloy</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7" t="n"/>
+      <c r="Z2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>135170</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Bantay Primary School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOIL PROTECTION, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>9593256.5077</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>9578381.720000001</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="n">
         <v>44713</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="Q3" s="6" t="n">
         <v>44632</v>
       </c>
-      <c r="Q3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-09</t>
         </is>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="T3" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="V3" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="W3" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">HGW=3 Engineering &amp; Construction/ Hilbert B. Willie       </t>
         </is>
       </c>
-      <c r="Y3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="7" t="n"/>
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>135101</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Likowan PS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>TUBO</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOIL PROTECTION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>18135713.24906993</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>18121787.12</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <v>44723</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="Q4" s="6" t="n">
         <v>44739</v>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-10</t>
         </is>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="T4" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>HOPE EFG Builders/Esther P. Sangcaan</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7" t="n"/>
+      <c r="Z4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>218508</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Gacab PS</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>MALIBCONG</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE,  WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>21387725.206</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>21372483.54</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="n">
         <v>44743</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="Q5" s="6" t="n">
         <v>44632</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2021-08</t>
         </is>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="T5" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="W5" s="6" t="n">
         <v>44421</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>44440</v>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>Baje Construction/Ernesto B. Baje</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7" t="n"/>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>135231</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Cadaclan ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CALANASAN (BAYAG)</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>18186711.6621</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
@@ -1066,104 +1082,107 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
           <t>LMS-2020-001</t>
         </is>
       </c>
-      <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>July 1,2021</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>July 7,2021</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>July 19,2021</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>Contract Preparation</t>
         </is>
       </c>
-      <c r="Z6" s="7" t="n"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>135231</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Cadaclan ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>CALANASAN (BAYAG)</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
@@ -1172,124 +1191,127 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
           <t>LMS-2020-001</t>
         </is>
       </c>
-      <c r="R7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>July 1,2021</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>July 7,2021</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>July 19,2021</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Contract Preparation</t>
         </is>
       </c>
-      <c r="Z7" s="7" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>135556</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Mongoto Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Kabayan</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM AND RETAINING WALL</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>20828590.34069782</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="5" t="inlineStr">
         <is>
@@ -1311,291 +1333,300 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Delay was caused by the collapsed retaining wall</t>
         </is>
       </c>
-      <c r="Z8" s="7" t="n"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Lubo-ong ES- Extension</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>HUNGDUAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF   RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE , WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>14038425.3807</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="U9" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="V9" s="6" t="n">
         <v>44425</v>
       </c>
-      <c r="V9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="5" t="n">
-        <v>0</v>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" s="7" t="n"/>
+      <c r="Z9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Jolowon ES-Annex</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Lamut</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE, SLOPE PROTECTION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>18410762.9113</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="n">
-        <v>0</v>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>44411</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>44425</v>
       </c>
-      <c r="V10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>The project was terminated due to more than 10% slippage and LD to other DepEd Projects</t>
         </is>
       </c>
-      <c r="Z10" s="7" t="n"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>136128</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Pangol Elementary School</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>TANUDAN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, RAIN WATER COLLECTOR AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>11333380.9021</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O11" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="n">
-        <v>0</v>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S11" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
@@ -1617,93 +1648,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>For Posting Due to Revalidation of the Project Site and Program Revision on Site Adoptation. (Target for posting August 17, 2021</t>
         </is>
       </c>
-      <c r="Z11" s="7" t="n"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>136151</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Tulgao East Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>TINGLAYAN</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>20714406.06139439</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O12" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S12" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
@@ -1725,87 +1759,90 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X12" s="5" t="n">
-        <v>0</v>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z12" s="7" t="n"/>
+      <c r="Z12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>136151</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Tulgao East Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>TINGLAYAN</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="n">
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q13" s="5" t="n">
-        <v>0</v>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S13" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
@@ -1827,91 +1864,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X13" s="5" t="n">
-        <v>0</v>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="7" t="n"/>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>136284</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Apalis Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND  SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>27229155.3076</v>
       </c>
-      <c r="L14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O14" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P14" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="n">
-        <v>0</v>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S14" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T14" s="5" t="inlineStr">
         <is>
@@ -1920,100 +1960,103 @@
       </c>
       <c r="U14" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
           <t>August 9,2021</t>
         </is>
       </c>
-      <c r="V14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W14" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X14" s="5" t="n">
-        <v>0</v>
+      <c r="X14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="7" t="n"/>
+      <c r="Z14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>136284</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Apalis Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="n">
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM,WATER SYSTEM, &amp; SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O15" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P15" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q15" s="5" t="n">
-        <v>0</v>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S15" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
@@ -2022,104 +2065,107 @@
       </c>
       <c r="U15" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
           <t>August 9,2021</t>
         </is>
       </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W15" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X15" s="5" t="n">
-        <v>0</v>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="7" t="n"/>
+      <c r="Z15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>136157</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Balatoc Primary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>TABUK CITY</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE STOREY FOUR CLASSROOM SCHOOL BUILDING (WITH COMMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>15304902.1749</v>
       </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O16" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P16" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="n">
-        <v>0</v>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S16" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
@@ -2141,193 +2187,199 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X16" s="5" t="n">
-        <v>0</v>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="7" t="n"/>
+      <c r="Z16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>136182</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Tangbay Primary School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>15364666.07977862</v>
       </c>
-      <c r="L17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O17" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P17" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="n">
-        <v>0</v>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="S17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6" t="n">
         <v>44385</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="U17" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="V17" s="6" t="n">
         <v>44404</v>
       </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W17" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>ongoing lay out of cr tiles, ground clearing, installation of electrical fixture, installation of window glass and concreting of concrete infront of the building</t>
         </is>
       </c>
-      <c r="Z17" s="7" t="n"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>135261</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Daga ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>CONNER</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - THREE(3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHTING SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>10705275.29</v>
       </c>
-      <c r="L18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="M18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O18" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P18" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="n">
-        <v>0</v>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S18" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
@@ -2349,91 +2401,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X18" s="5" t="n">
-        <v>0</v>
+      <c r="X18" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z18" s="7" t="n"/>
+      <c r="Z18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>219014</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>San Mariano ES</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>PUDTOL</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAIN WATER COLLECTOR,SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>8222048.54986006</v>
       </c>
-      <c r="L19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O19" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="n">
-        <v>0</v>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S19" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
@@ -2455,91 +2510,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X19" s="5" t="n">
-        <v>0</v>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z19" s="7" t="n"/>
+      <c r="Z19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>318918</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Adaoay National High School-Abucot Extn.</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>KABAYAN</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE(1) STOREY TWO(2) CLASSROOMS SCHOOL BUILDINGS (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM AND RETAINING WALL</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>10887942</v>
       </c>
-      <c r="L20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O20" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P20" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q20" s="5" t="n">
-        <v>0</v>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S20" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T20" s="5" t="inlineStr">
         <is>
@@ -2561,91 +2619,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X20" s="5" t="n">
-        <v>0</v>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" s="7" t="n"/>
+      <c r="Z20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>135708</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Saguitlang Elementary School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>TUBA</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE(1) STOREY FOUR(4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>17529648.15</v>
       </c>
-      <c r="L21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="M21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O21" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P21" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q21" s="5" t="n">
-        <v>0</v>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S21" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T21" s="5" t="inlineStr">
         <is>
@@ -2667,91 +2728,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X21" s="5" t="n">
-        <v>0</v>
+      <c r="X21" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z21" s="7" t="n"/>
+      <c r="Z21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>135970</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Bullalayao Primary School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>BALBALAN</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF  SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, RAIN WATER COLLECTOR AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>10930337.18196885</v>
       </c>
-      <c r="L22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O22" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P22" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q22" s="5" t="n">
-        <v>0</v>
+      <c r="Q22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S22" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T22" s="5" t="inlineStr">
         <is>
@@ -2773,91 +2837,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X22" s="5" t="n">
-        <v>0</v>
+      <c r="X22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z22" s="7" t="n"/>
+      <c r="Z22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>136286</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Bagabag Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>13914381.12</v>
       </c>
-      <c r="L23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="M23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O23" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P23" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q23" s="5" t="n">
-        <v>0</v>
+      <c r="Q23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S23" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T23" s="5" t="inlineStr">
         <is>
@@ -2879,91 +2946,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X23" s="5" t="n">
-        <v>0</v>
+      <c r="X23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z23" s="7" t="n"/>
+      <c r="Z23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>136172</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Mabato Elementary School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>TABUK CITY</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>12054411.38547593</v>
       </c>
-      <c r="L24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O24" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P24" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q24" s="5" t="n">
-        <v>0</v>
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S24" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T24" s="5" t="inlineStr">
         <is>
@@ -2985,4293 +3055,4418 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X24" s="5" t="n">
-        <v>0</v>
+      <c r="X24" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" s="7" t="n"/>
+      <c r="Z24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>201</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>135208</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Collago ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>LAGAYAN</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>9300666.890799999</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>9194846.220000001</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="Q25" s="6" t="n">
         <v>45122</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>OSEC-CAR-22-6291</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2022-04-002</t>
         </is>
       </c>
-      <c r="S25" s="6" t="n">
+      <c r="T25" s="6" t="n">
         <v>44645</v>
       </c>
-      <c r="T25" s="5" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>April 1, 2022</t>
         </is>
       </c>
-      <c r="U25" s="5" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>April 13, 2022</t>
         </is>
       </c>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>April 27, 2022</t>
         </is>
       </c>
-      <c r="W25" s="5" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>September 22, 2022</t>
         </is>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="7" t="n"/>
+      <c r="Z25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>202</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>135186</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Lam-aoan PS</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SLOPE PROTECTION, WATER SYSTEM AND REPAIR OF CLASSROOM</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>20019229.9273</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>19802771.1822695</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="Q26" s="6" t="n">
         <v>45122</v>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>OSEC-CAR-22-6778</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2022-016</t>
         </is>
       </c>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>October 12, 2022</t>
         </is>
       </c>
-      <c r="T26" s="5" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>October 19, 2022</t>
         </is>
       </c>
-      <c r="U26" s="5" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>November 2, 2022</t>
         </is>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>November 10, 2022</t>
         </is>
       </c>
-      <c r="W26" s="5" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>November 24, 2022</t>
         </is>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="7" t="n"/>
+      <c r="Z26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>203</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>109752</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>MANICBEL PRIMARY SCHOOL</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SLOPE PROTECTION AND  WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>19207305.1582</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>19001015.84</v>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="P27" s="6" t="n">
+      <c r="Q27" s="6" t="n">
         <v>45122</v>
       </c>
-      <c r="Q27" s="5" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>OSEC-CAR-22-6291</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2022-04-001</t>
         </is>
       </c>
-      <c r="S27" s="6" t="n">
+      <c r="T27" s="6" t="n">
         <v>44645</v>
       </c>
-      <c r="T27" s="5" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>April 1, 2022</t>
         </is>
       </c>
-      <c r="U27" s="5" t="inlineStr">
+      <c r="V27" s="5" t="inlineStr">
         <is>
           <t>April 13, 2022</t>
         </is>
       </c>
-      <c r="V27" s="5" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>sq</t>
         </is>
       </c>
-      <c r="W27" s="5" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>a1</t>
         </is>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="7" t="n"/>
+      <c r="Z27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>135675</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Ebbes ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>SABLAN</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM,
 REPAIR AND REHABILITATION OF CALSSROOMS AND IMPROVEMENT OF SCHOOLS FACILITIES</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>25486535.97675037</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>22001471.0172</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>JULY 17, 2023</t>
         </is>
       </c>
-      <c r="P28" s="5" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>11/20/2023</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>May 11, 2022</t>
         </is>
       </c>
-      <c r="T28" s="5" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>May 18, 2022</t>
         </is>
       </c>
-      <c r="U28" s="5" t="inlineStr">
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V28" s="6" t="n">
+      <c r="W28" s="6" t="n">
         <v>44813</v>
       </c>
-      <c r="W28" s="5" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>0CTOBER 6, 2022</t>
         </is>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>JRF ANGOYNA GENERAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="7" t="n"/>
+      <c r="Z28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>205</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>135722</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Balangabang ES</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>21324715.1738</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>18159900.52032</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6" t="n">
         <v>45159</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="Q29" s="6" t="n">
         <v>45152</v>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-02</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>May 11, 2022</t>
         </is>
       </c>
-      <c r="T29" s="5" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>May 18, 2022</t>
         </is>
       </c>
-      <c r="U29" s="5" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>May 31, 2022</t>
         </is>
       </c>
-      <c r="V29" s="6" t="n">
+      <c r="W29" s="6" t="n">
         <v>44813</v>
       </c>
-      <c r="W29" s="5" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>0CTOBER 6, 2022</t>
         </is>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>JRF ANGOYNA GENERAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="7" t="n"/>
+      <c r="Z29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>206</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>135725</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Dorencio ES</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, WATER AND SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>18770107.0743</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>17086845.6</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="6" t="n">
         <v>45240</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="Q30" s="6" t="n">
         <v>45260</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>LMS-2022-01</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>November 04, 2022</t>
         </is>
       </c>
-      <c r="T30" s="5" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr">
         <is>
           <t>November 11, 2022</t>
         </is>
       </c>
-      <c r="U30" s="5" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>November 24, 2022</t>
         </is>
       </c>
-      <c r="V30" s="6" t="n">
+      <c r="W30" s="6" t="n">
         <v>44946</v>
       </c>
-      <c r="W30" s="6" t="n">
+      <c r="X30" s="6" t="n">
         <v>44970</v>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>KAT BUILDERS</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="7" t="n"/>
+      <c r="Z30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>135799</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Namal ES</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>ASIPULO</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SLOPE PROTECTION, WATER SYSTEM AND PERIMETER FENCE (ONE BAY, 3.0M) WITH VEHICULAR  AND PEDESTRIAN ENTRANCE/EXIT GATES </t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>23515376.9847</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>23275032.58</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6" t="n">
         <v>45596</v>
       </c>
-      <c r="P31" s="6" t="n">
+      <c r="Q31" s="6" t="n">
         <v>45807</v>
       </c>
-      <c r="Q31" s="5" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-.02</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-.03</t>
         </is>
       </c>
-      <c r="S31" s="6" t="n">
+      <c r="T31" s="6" t="n">
         <v>45259</v>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="U31" s="6" t="n">
         <v>45266</v>
       </c>
-      <c r="U31" s="6" t="n">
+      <c r="V31" s="6" t="n">
         <v>45279</v>
       </c>
-      <c r="V31" s="6" t="n">
+      <c r="W31" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="W31" s="6" t="n">
+      <c r="X31" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>HAIGHTS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="7" t="n"/>
+      <c r="Z31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>135800</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Nangkatengey ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>ASIPULO</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET)  WITH PROVISION OF RAIN WATER COLLECTOR, SCHOOL FURNITURE,SOLAR PV ENERGY SYSTEM AND WATER SYSTEM AND CONSTRUCTION OF ONE (1) STOREY -TWO(2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, PERIMETER FENCE (ONE BAY, 3.0M) WITH VEHICULAR  AND PEDESTRIAN ENTRANCE/EXIT GATES AND  SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>28545849.0892</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="M32" s="5" t="n">
         <v>28270735.81</v>
       </c>
-      <c r="M32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="n">
         <v>45595</v>
       </c>
-      <c r="P32" s="6" t="n">
+      <c r="Q32" s="6" t="n">
         <v>45741</v>
       </c>
-      <c r="Q32" s="5" t="inlineStr"/>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="T32" s="6" t="n">
         <v>44922</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="U32" s="6" t="n">
         <v>44929</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="V32" s="6" t="n">
         <v>44943</v>
       </c>
-      <c r="V32" s="5" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
         <is>
           <t>September 14,2023</t>
         </is>
       </c>
-      <c r="W32" s="6" t="n">
+      <c r="X32" s="6" t="n">
         <v>45198</v>
       </c>
-      <c r="X32" s="5" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>Northern Communications Inc.</t>
         </is>
       </c>
-      <c r="Y32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="7" t="n"/>
+      <c r="Z32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>305213</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Pasil National High School</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE,AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>11549894.54662381</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="M33" s="5" t="n">
         <v>10323114.96</v>
       </c>
-      <c r="M33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="6" t="n">
         <v>45082</v>
       </c>
-      <c r="P33" s="5" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>July 20, 2023</t>
         </is>
       </c>
-      <c r="Q33" s="5" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="R33" s="5" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="S33" s="5" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr">
         <is>
           <t>August 12,2022</t>
         </is>
       </c>
-      <c r="T33" s="5" t="inlineStr">
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>August 19,2022</t>
         </is>
       </c>
-      <c r="U33" s="5" t="inlineStr">
+      <c r="V33" s="5" t="inlineStr">
         <is>
           <t>August 31,2022</t>
         </is>
       </c>
-      <c r="V33" s="5" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>October 14, 2022</t>
         </is>
       </c>
-      <c r="W33" s="5" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>December 22, 2022</t>
         </is>
       </c>
-      <c r="X33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z33" s="7" t="n"/>
+      <c r="AA33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>136019</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Cagaluan Elementary School</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H34" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH DETACHED TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>12754502.0283</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="M34" s="5" t="n">
         <v>12625269.69</v>
       </c>
-      <c r="M34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6" t="n">
         <v>45343</v>
       </c>
-      <c r="P34" s="5" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>August 12, 2024, 2023</t>
         </is>
       </c>
-      <c r="Q34" s="5" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="R34" s="5" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="S34" s="5" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr">
         <is>
           <t>August 12,2022</t>
         </is>
       </c>
-      <c r="T34" s="5" t="inlineStr">
+      <c r="U34" s="5" t="inlineStr">
         <is>
           <t>August 19,2022</t>
         </is>
       </c>
-      <c r="U34" s="5" t="inlineStr">
+      <c r="V34" s="5" t="inlineStr">
         <is>
           <t>August 31,2022</t>
         </is>
       </c>
-      <c r="V34" s="5" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
         <is>
           <t>October 14, 2022</t>
         </is>
       </c>
-      <c r="W34" s="5" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>December 21, 2022</t>
         </is>
       </c>
-      <c r="X34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>Stellar JFS General Engineering and Construction</t>
         </is>
       </c>
-      <c r="Y34" s="5" t="inlineStr">
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z34" s="7" t="n"/>
+      <c r="AA34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>136020</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Cagaluan ES Annex (Da-o PS)</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH DETACHED TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>13755283.86324885</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="M35" s="5" t="n">
         <v>9168628.550000001</v>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="P35" s="6" t="n">
+      <c r="Q35" s="6" t="n">
         <v>45547</v>
       </c>
-      <c r="Q35" s="5" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="R35" s="5" t="inlineStr">
+      <c r="S35" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-CAR-Kalinga-002</t>
         </is>
       </c>
-      <c r="S35" s="5" t="inlineStr">
+      <c r="T35" s="5" t="inlineStr">
         <is>
           <t>July 6, 2023</t>
         </is>
       </c>
-      <c r="T35" s="5" t="inlineStr">
+      <c r="U35" s="5" t="inlineStr">
         <is>
           <t>July 13, 2023</t>
         </is>
       </c>
-      <c r="U35" s="5" t="inlineStr">
+      <c r="V35" s="5" t="inlineStr">
         <is>
           <t>July 24, 2023</t>
         </is>
       </c>
-      <c r="V35" s="5" t="inlineStr">
+      <c r="W35" s="5" t="inlineStr">
         <is>
           <t>September 19, 2023</t>
         </is>
       </c>
-      <c r="W35" s="5" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>October 25, 2023</t>
         </is>
       </c>
-      <c r="X35" s="5" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>NIHK Construction Services</t>
         </is>
       </c>
-      <c r="Y35" s="5" t="inlineStr">
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="Z35" s="7" t="n"/>
+      <c r="AA35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>136188</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Latang Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>BARLIG</t>
         </is>
       </c>
-      <c r="G36" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H36" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE AND REPAIR OF TWO (2) CLASSROOM SCHOOL BUILDING.</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>32409555.98919023</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="M36" s="5" t="n">
         <v>32000000</v>
       </c>
-      <c r="M36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6" t="n">
         <v>45240</v>
       </c>
-      <c r="P36" s="5" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>January  26, 2024</t>
         </is>
       </c>
-      <c r="Q36" s="5" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>INF-2022 LMS-003</t>
         </is>
       </c>
-      <c r="R36" s="5" t="inlineStr">
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>INF-2022 LMS-003</t>
         </is>
       </c>
-      <c r="S36" s="6" t="n">
+      <c r="T36" s="6" t="n">
         <v>44878</v>
-      </c>
-      <c r="T36" s="6" t="n">
-        <v>44900</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>44900</v>
       </c>
       <c r="V36" s="6" t="n">
+        <v>44900</v>
+      </c>
+      <c r="W36" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="W36" s="6" t="n">
+      <c r="X36" s="6" t="n">
         <v>44930</v>
       </c>
-      <c r="X36" s="5" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y36" s="5" t="inlineStr">
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>completed W/ time extension</t>
         </is>
       </c>
-      <c r="Z36" s="7" t="n"/>
+      <c r="AA36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>213</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>136334</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Belwang Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>SADANGA</t>
         </is>
       </c>
-      <c r="G37" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE AND REPAIR OF TWO (2) CLASSROOM SCHOOL BUILDING.</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>32899132.20874773</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="M37" s="5" t="n">
         <v>13427411.97</v>
       </c>
-      <c r="M37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6" t="n">
         <v>45337</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="Q37" s="6" t="n">
         <v>45376</v>
       </c>
-      <c r="Q37" s="5" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="R37" s="5" t="inlineStr">
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="S37" s="6" t="n">
+      <c r="T37" s="6" t="n">
         <v>45048</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="U37" s="6" t="n">
         <v>45062</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="V37" s="6" t="n">
         <v>45071</v>
       </c>
-      <c r="V37" s="6" t="n">
+      <c r="W37" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="W37" s="6" t="n">
+      <c r="X37" s="6" t="n">
         <v>45127</v>
       </c>
-      <c r="X37" s="5" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>DANREV</t>
         </is>
       </c>
-      <c r="Y37" s="5" t="inlineStr">
+      <c r="Z37" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="Z37" s="7" t="n"/>
+      <c r="AA37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>136348</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Kilong Elementary School</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>SAGADA</t>
         </is>
       </c>
-      <c r="G38" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE AND REPAIR OF TWO (2) CLASSROOM SCHOOL BUILDING.</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>34321745.87489972</v>
       </c>
-      <c r="L38" s="5" t="n">
+      <c r="M38" s="5" t="n">
         <v>16945355.98</v>
       </c>
-      <c r="M38" s="5" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="6" t="n">
         <v>45390</v>
       </c>
-      <c r="P38" s="6" t="n">
+      <c r="Q38" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="Q38" s="5" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="R38" s="5" t="inlineStr">
+      <c r="S38" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="T38" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="U38" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="V38" s="6" t="n">
         <v>45342</v>
       </c>
-      <c r="V38" s="6" t="n">
+      <c r="W38" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="W38" s="6" t="n">
+      <c r="X38" s="6" t="n">
         <v>45359</v>
       </c>
-      <c r="X38" s="5" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>RBEP</t>
         </is>
       </c>
-      <c r="Y38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="7" t="n"/>
+      <c r="Z38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>215</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>137049</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Callagan Elementary School</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H39" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m) AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>17836389.9806</v>
       </c>
-      <c r="L39" s="5" t="n">
+      <c r="M39" s="5" t="n">
         <v>16943551</v>
       </c>
-      <c r="M39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="6" t="n">
         <v>45390</v>
       </c>
-      <c r="P39" s="6" t="n">
+      <c r="Q39" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="Q39" s="5" t="inlineStr">
+      <c r="R39" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="R39" s="5" t="inlineStr">
+      <c r="S39" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S39" s="6" t="n">
+      <c r="T39" s="6" t="n">
         <v>45317</v>
       </c>
-      <c r="T39" s="6" t="n">
+      <c r="U39" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="U39" s="6" t="n">
+      <c r="V39" s="6" t="n">
         <v>45342</v>
       </c>
-      <c r="V39" s="6" t="n">
+      <c r="W39" s="6" t="n">
         <v>45356</v>
       </c>
-      <c r="W39" s="6" t="n">
+      <c r="X39" s="6" t="n">
         <v>45359</v>
       </c>
-      <c r="X39" s="5" t="inlineStr">
+      <c r="Y39" s="5" t="inlineStr">
         <is>
           <t>RBEP</t>
         </is>
       </c>
-      <c r="Y39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="7" t="n"/>
+      <c r="Z39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>283</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>135187</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Lawigan PS</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>BOLINEY</t>
         </is>
       </c>
-      <c r="G40" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>11110000</v>
       </c>
-      <c r="L40" s="5" t="n">
+      <c r="M40" s="5" t="n">
         <v>14152726.43</v>
       </c>
-      <c r="M40" s="5" t="inlineStr">
+      <c r="N40" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="6" t="n">
         <v>45447</v>
       </c>
-      <c r="P40" s="6" t="n">
+      <c r="Q40" s="6" t="n">
         <v>45462</v>
       </c>
-      <c r="Q40" s="5" t="inlineStr">
+      <c r="R40" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R40" s="5" t="inlineStr">
+      <c r="S40" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S40" s="5" t="inlineStr">
+      <c r="T40" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T40" s="5" t="inlineStr">
+      <c r="U40" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U40" s="5" t="inlineStr">
+      <c r="V40" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V40" s="5" t="inlineStr">
+      <c r="W40" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W40" s="5" t="inlineStr">
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X40" s="5" t="inlineStr">
+      <c r="Y40" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="7" t="n"/>
+      <c r="Z40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>284</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>135047</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Bacag ES</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>LACUB</t>
         </is>
       </c>
-      <c r="G41" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>12120000</v>
       </c>
-      <c r="L41" s="5" t="n">
+      <c r="M41" s="5" t="n">
         <v>17116471.79</v>
       </c>
-      <c r="M41" s="5" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="6" t="n">
         <v>45710</v>
       </c>
-      <c r="P41" s="6" t="n">
+      <c r="Q41" s="6" t="n">
         <v>45388</v>
       </c>
-      <c r="Q41" s="5" t="inlineStr">
+      <c r="R41" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R41" s="5" t="inlineStr">
+      <c r="S41" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S41" s="5" t="inlineStr">
+      <c r="T41" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T41" s="5" t="inlineStr">
+      <c r="U41" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U41" s="5" t="inlineStr">
+      <c r="V41" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V41" s="5" t="inlineStr">
+      <c r="W41" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W41" s="5" t="inlineStr">
+      <c r="X41" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X41" s="5" t="inlineStr">
+      <c r="Y41" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="7" t="n"/>
+      <c r="Z41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="5" t="n">
+        <v>285</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="E42" s="5" t="n">
         <v>135092</v>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Barit ES</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>LUBA</t>
         </is>
       </c>
-      <c r="G42" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H42" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="L42" s="5" t="n">
         <v>10100000</v>
       </c>
-      <c r="L42" s="5" t="n">
+      <c r="M42" s="5" t="n">
         <v>17392036.74</v>
       </c>
-      <c r="M42" s="5" t="inlineStr">
+      <c r="N42" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="6" t="n">
         <v>45402</v>
       </c>
-      <c r="P42" s="6" t="n">
+      <c r="Q42" s="6" t="n">
         <v>45290</v>
       </c>
-      <c r="Q42" s="5" t="inlineStr">
+      <c r="R42" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R42" s="5" t="inlineStr">
+      <c r="S42" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S42" s="5" t="inlineStr">
+      <c r="T42" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T42" s="5" t="inlineStr">
+      <c r="U42" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U42" s="5" t="inlineStr">
+      <c r="V42" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V42" s="5" t="inlineStr">
+      <c r="W42" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W42" s="5" t="inlineStr">
+      <c r="X42" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X42" s="5" t="inlineStr">
+      <c r="Y42" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="7" t="n"/>
+      <c r="Z42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="5" t="n">
+        <v>286</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="E43" s="5" t="n">
         <v>135168</v>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Abas ES</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G43" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H43" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="L43" s="5" t="n">
         <v>9090000</v>
       </c>
-      <c r="L43" s="5" t="n">
+      <c r="M43" s="5" t="n">
         <v>16780281.43</v>
       </c>
-      <c r="M43" s="5" t="inlineStr">
+      <c r="N43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="6" t="n">
         <v>45418</v>
       </c>
-      <c r="P43" s="6" t="n">
+      <c r="Q43" s="6" t="n">
         <v>45277</v>
       </c>
-      <c r="Q43" s="5" t="inlineStr">
+      <c r="R43" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R43" s="5" t="inlineStr">
+      <c r="S43" s="5" t="inlineStr">
         <is>
           <t>2023-07-007</t>
         </is>
       </c>
-      <c r="S43" s="5" t="inlineStr">
+      <c r="T43" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T43" s="5" t="inlineStr">
+      <c r="U43" s="5" t="inlineStr">
         <is>
           <t>July 4, 2023</t>
         </is>
       </c>
-      <c r="U43" s="5" t="inlineStr">
+      <c r="V43" s="5" t="inlineStr">
         <is>
           <t>July 17, 2023</t>
         </is>
       </c>
-      <c r="V43" s="5" t="inlineStr">
+      <c r="W43" s="5" t="inlineStr">
         <is>
           <t>July 26, 2023</t>
         </is>
       </c>
-      <c r="W43" s="5" t="inlineStr">
+      <c r="X43" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X43" s="5" t="inlineStr">
+      <c r="Y43" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="7" t="n"/>
+      <c r="Z43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="5" t="n">
+        <v>287</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="E44" s="5" t="n">
         <v>135184</v>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Gangal Elementary School</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>SALLAPADAN</t>
         </is>
       </c>
-      <c r="G44" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1 STOREY 2 CLASSROOMS WITH COMMON TOILET, SCHOOL FURNITURES, WATER SYSTEM, RAINWATER COLLECTOR</t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="L44" s="5" t="n">
         <v>9090000</v>
       </c>
-      <c r="L44" s="5" t="n">
+      <c r="M44" s="5" t="n">
         <v>17364431.28</v>
       </c>
-      <c r="M44" s="5" t="inlineStr">
+      <c r="N44" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="6" t="n">
         <v>45305</v>
       </c>
-      <c r="P44" s="6" t="n">
+      <c r="Q44" s="6" t="n">
         <v>45277</v>
       </c>
-      <c r="Q44" s="5" t="inlineStr">
+      <c r="R44" s="5" t="inlineStr">
         <is>
           <t>SDO-ABRA-2023-06-043</t>
         </is>
       </c>
-      <c r="R44" s="5" t="inlineStr">
+      <c r="S44" s="5" t="inlineStr">
         <is>
           <t>PB - Construction-2023-002</t>
         </is>
       </c>
-      <c r="S44" s="5" t="inlineStr">
+      <c r="T44" s="5" t="inlineStr">
         <is>
           <t>June 28, 2023</t>
         </is>
       </c>
-      <c r="T44" s="5" t="inlineStr">
+      <c r="U44" s="5" t="inlineStr">
         <is>
           <t>June 3,2023</t>
         </is>
       </c>
-      <c r="U44" s="5" t="inlineStr">
+      <c r="V44" s="5" t="inlineStr">
         <is>
           <t>June 13,2023</t>
         </is>
       </c>
-      <c r="V44" s="5" t="inlineStr">
+      <c r="W44" s="5" t="inlineStr">
         <is>
           <t>June 27,2023</t>
         </is>
       </c>
-      <c r="W44" s="5" t="inlineStr">
+      <c r="X44" s="5" t="inlineStr">
         <is>
           <t>August 9, 2023</t>
         </is>
       </c>
-      <c r="X44" s="5" t="inlineStr">
+      <c r="Y44" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="7" t="n"/>
+      <c r="Z44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="E45" s="5" t="n">
         <v>135720</v>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Baayan ES</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G45" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H45" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO(2) UNITS- ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  WATER SYSTEM AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="L45" s="5" t="n">
         <v>23421679.46</v>
       </c>
-      <c r="L45" s="5" t="n">
+      <c r="M45" s="5" t="n">
         <v>22992313.95</v>
       </c>
-      <c r="M45" s="5" t="inlineStr">
+      <c r="N45" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="5" t="inlineStr">
+      <c r="O45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="inlineStr">
         <is>
           <t>JULY 14, 2024</t>
         </is>
       </c>
-      <c r="P45" s="5" t="inlineStr">
+      <c r="Q45" s="5" t="inlineStr">
         <is>
           <t>JULY 4, 2024</t>
         </is>
       </c>
-      <c r="Q45" s="5" t="inlineStr">
+      <c r="R45" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-01</t>
         </is>
       </c>
-      <c r="R45" s="5" t="inlineStr">
+      <c r="S45" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-01</t>
         </is>
       </c>
-      <c r="S45" s="5" t="inlineStr">
+      <c r="T45" s="5" t="inlineStr">
         <is>
           <t>May 5, 2023</t>
         </is>
       </c>
-      <c r="T45" s="5" t="inlineStr">
+      <c r="U45" s="5" t="inlineStr">
         <is>
           <t>May 12, 2023</t>
         </is>
       </c>
-      <c r="U45" s="5" t="inlineStr">
+      <c r="V45" s="5" t="inlineStr">
         <is>
           <t>May 25, 2023</t>
         </is>
       </c>
-      <c r="V45" s="6" t="n">
+      <c r="W45" s="6" t="n">
         <v>45177</v>
       </c>
-      <c r="W45" s="6" t="n">
+      <c r="X45" s="6" t="n">
         <v>45168</v>
       </c>
-      <c r="X45" s="5" t="inlineStr">
+      <c r="Y45" s="5" t="inlineStr">
         <is>
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="7" t="n"/>
+      <c r="Z45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="5" t="n">
+        <v>289</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="E46" s="5" t="n">
         <v>502340</v>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>Miguel Palispis Integrated School</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>TUBA</t>
         </is>
       </c>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="H46" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H46" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM, SLOPE PROTECTION, REPAIR AND REHABILITATION OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="L46" s="5" t="n">
         <v>27377352.57</v>
       </c>
-      <c r="L46" s="5" t="n">
+      <c r="M46" s="5" t="n">
         <v>27107027.98</v>
       </c>
-      <c r="M46" s="5" t="inlineStr">
+      <c r="N46" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" s="5" t="inlineStr">
+      <c r="O46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="inlineStr">
         <is>
           <t>FEBRUARY 5, 2025</t>
         </is>
       </c>
-      <c r="P46" s="5" t="inlineStr">
+      <c r="Q46" s="5" t="inlineStr">
         <is>
           <t>MAY 29, 2025</t>
         </is>
       </c>
-      <c r="Q46" s="5" t="inlineStr">
+      <c r="R46" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-306</t>
         </is>
       </c>
-      <c r="R46" s="5" t="inlineStr">
+      <c r="S46" s="5" t="inlineStr">
         <is>
           <t>LMS-2023-306</t>
         </is>
       </c>
-      <c r="S46" s="5" t="inlineStr">
+      <c r="T46" s="5" t="inlineStr">
         <is>
           <t>December 01, 2023</t>
         </is>
       </c>
-      <c r="T46" s="5" t="inlineStr">
+      <c r="U46" s="5" t="inlineStr">
         <is>
           <t>December 11, 2023</t>
         </is>
       </c>
-      <c r="U46" s="5" t="inlineStr">
+      <c r="V46" s="5" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="V46" s="6" t="n">
+      <c r="W46" s="6" t="n">
         <v>45334</v>
       </c>
-      <c r="W46" s="6" t="n">
+      <c r="X46" s="6" t="n">
         <v>45363</v>
       </c>
-      <c r="X46" s="5" t="inlineStr">
+      <c r="Y46" s="5" t="inlineStr">
         <is>
           <t>HAIGHTS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="7" t="n"/>
+      <c r="Z46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="5" t="n">
+        <v>290</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="D47" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="E47" s="5" t="n">
         <v>135786</v>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>Ammoweg Elementary School</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>ASIPULO</t>
         </is>
       </c>
-      <c r="G47" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H47" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) &amp; TWO(2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM AND PERIMETER FENCE (ONE BAY, 3.0M)</t>
         </is>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="L47" s="5" t="n">
         <v>26101571.53</v>
       </c>
-      <c r="L47" s="5" t="n">
+      <c r="M47" s="5" t="n">
         <v>12980986.68</v>
       </c>
-      <c r="M47" s="5" t="inlineStr">
+      <c r="N47" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="6" t="n">
         <v>45452</v>
       </c>
-      <c r="P47" s="6" t="n">
+      <c r="Q47" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="Q47" s="5" t="inlineStr"/>
-      <c r="R47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="5" t="inlineStr">
+      <c r="R47" s="5" t="inlineStr"/>
+      <c r="S47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="5" t="inlineStr">
         <is>
           <t>June 23, 2023</t>
         </is>
       </c>
-      <c r="T47" s="5" t="inlineStr">
+      <c r="U47" s="5" t="inlineStr">
         <is>
           <t>June 30, 2023</t>
         </is>
       </c>
-      <c r="U47" s="5" t="inlineStr">
+      <c r="V47" s="5" t="inlineStr">
         <is>
           <t>July 12, 2023</t>
         </is>
       </c>
-      <c r="V47" s="5" t="inlineStr">
+      <c r="W47" s="5" t="inlineStr">
         <is>
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W47" s="6" t="n">
+      <c r="X47" s="6" t="n">
         <v>45173</v>
       </c>
-      <c r="X47" s="5" t="inlineStr">
+      <c r="Y47" s="5" t="inlineStr">
         <is>
           <t>Matt Glass/Aluminum/Construction Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Y47" s="5" t="inlineStr">
+      <c r="Z47" s="5" t="inlineStr">
         <is>
           <t>w/ time extension due to shearline</t>
         </is>
       </c>
-      <c r="Z47" s="7" t="n"/>
+      <c r="AA47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="5" t="n">
+        <v>291</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="D48" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="E48" s="5" t="n">
         <v>136022</v>
       </c>
-      <c r="E48" s="5" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>Colayo Elementary School</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>PASIL</t>
         </is>
       </c>
-      <c r="G48" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H48" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J48" s="5" t="inlineStr">
+      <c r="K48" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH SANITATION FACILITIES (4 - SEATER), SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM.</t>
         </is>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="L48" s="5" t="n">
         <v>24632636.5</v>
       </c>
-      <c r="L48" s="5" t="n">
+      <c r="M48" s="5" t="n">
         <v>12370674.27</v>
       </c>
-      <c r="M48" s="5" t="inlineStr">
+      <c r="N48" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="6" t="n">
         <v>45452</v>
       </c>
-      <c r="P48" s="6" t="n">
+      <c r="Q48" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="Q48" s="5" t="inlineStr">
+      <c r="R48" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="R48" s="5" t="inlineStr">
+      <c r="S48" s="5" t="inlineStr">
         <is>
           <t>LMS 2023-CAR-Kalinga-001</t>
         </is>
       </c>
-      <c r="S48" s="5" t="inlineStr">
+      <c r="T48" s="5" t="inlineStr">
         <is>
           <t>June 23, 2023</t>
         </is>
       </c>
-      <c r="T48" s="5" t="inlineStr">
+      <c r="U48" s="5" t="inlineStr">
         <is>
           <t>June 30, 2023</t>
         </is>
       </c>
-      <c r="U48" s="5" t="inlineStr">
+      <c r="V48" s="5" t="inlineStr">
         <is>
           <t>July 12, 2023</t>
         </is>
       </c>
-      <c r="V48" s="5" t="inlineStr">
+      <c r="W48" s="5" t="inlineStr">
         <is>
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W48" s="6" t="n">
+      <c r="X48" s="6" t="n">
         <v>45173</v>
       </c>
-      <c r="X48" s="5" t="inlineStr">
+      <c r="Y48" s="5" t="inlineStr">
         <is>
           <t>Matt Glass/Aluminum/Construction Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Y48" s="5" t="inlineStr">
+      <c r="Z48" s="5" t="inlineStr">
         <is>
           <t>w/ time extension due to shearline</t>
         </is>
       </c>
-      <c r="Z48" s="7" t="n"/>
+      <c r="AA48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="A49" s="5" t="n">
+        <v>292</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="D49" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="E49" s="5" t="n">
         <v>136233</v>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>Ambagiw Elementary School</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>BESAO</t>
         </is>
       </c>
-      <c r="G49" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H49" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="K49" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ELEVATED TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, PERIMETER FENCE</t>
         </is>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="L49" s="5" t="n">
         <v>37084540.17</v>
       </c>
-      <c r="L49" s="5" t="n">
+      <c r="M49" s="5" t="n">
         <v>12174043.03</v>
       </c>
-      <c r="M49" s="5" t="inlineStr">
+      <c r="N49" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="6" t="n">
         <v>45452</v>
       </c>
-      <c r="P49" s="6" t="n">
+      <c r="Q49" s="6" t="n">
         <v>45496</v>
       </c>
-      <c r="Q49" s="5" t="inlineStr">
+      <c r="R49" s="5" t="inlineStr">
         <is>
           <t>INF-2023 LMS-001</t>
         </is>
       </c>
-      <c r="R49" s="5" t="inlineStr">
+      <c r="S49" s="5" t="inlineStr">
         <is>
           <t>INF-2023 LMS-001</t>
         </is>
       </c>
-      <c r="S49" s="5" t="inlineStr">
+      <c r="T49" s="5" t="inlineStr">
         <is>
           <t>June 23, 2023</t>
         </is>
       </c>
-      <c r="T49" s="5" t="inlineStr">
+      <c r="U49" s="5" t="inlineStr">
         <is>
           <t>June 30, 2023</t>
         </is>
       </c>
-      <c r="U49" s="5" t="inlineStr">
+      <c r="V49" s="5" t="inlineStr">
         <is>
           <t>July 12, 2023</t>
         </is>
       </c>
-      <c r="V49" s="5" t="inlineStr">
+      <c r="W49" s="5" t="inlineStr">
         <is>
           <t>August 24, 2023</t>
         </is>
       </c>
-      <c r="W49" s="6" t="n">
+      <c r="X49" s="6" t="n">
         <v>45173</v>
       </c>
-      <c r="X49" s="5" t="inlineStr">
+      <c r="Y49" s="5" t="inlineStr">
         <is>
           <t>Matt Glass/Aluminum/Construction Supply and Allied Services</t>
         </is>
       </c>
-      <c r="Y49" s="5" t="inlineStr">
+      <c r="Z49" s="5" t="inlineStr">
         <is>
           <t>w/ time extension due to shearline</t>
         </is>
       </c>
-      <c r="Z49" s="7" t="n"/>
+      <c r="AA49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="5" t="n">
+        <v>293</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D50" s="5" t="n">
+      <c r="E50" s="5" t="n">
         <v>220523</v>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>Cataw Primary School</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G50" s="5" t="inlineStr">
+      <c r="H50" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H50" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="K50" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, FLAG POLE, PERIMETER FENCE, GATE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="L50" s="5" t="n">
         <v>23450515.55</v>
       </c>
-      <c r="L50" s="5" t="n">
+      <c r="M50" s="5" t="n">
         <v>23213776.25</v>
       </c>
-      <c r="M50" s="5" t="inlineStr">
+      <c r="N50" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N50" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="5" t="inlineStr">
+      <c r="O50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5" t="inlineStr">
         <is>
           <t>September 15, 2024</t>
         </is>
       </c>
-      <c r="P50" s="5" t="inlineStr">
+      <c r="Q50" s="5" t="inlineStr">
         <is>
           <t>May 17, 2024</t>
         </is>
       </c>
-      <c r="Q50" s="5" t="inlineStr">
+      <c r="R50" s="5" t="inlineStr">
         <is>
           <t>1-2023-3</t>
         </is>
       </c>
-      <c r="R50" s="5" t="inlineStr">
+      <c r="S50" s="5" t="inlineStr">
         <is>
           <t>1-2023-3</t>
         </is>
       </c>
-      <c r="S50" s="5" t="inlineStr">
+      <c r="T50" s="5" t="inlineStr">
         <is>
           <t>October 19- November 10, 2023</t>
         </is>
       </c>
-      <c r="T50" s="5" t="inlineStr">
+      <c r="U50" s="5" t="inlineStr">
         <is>
           <t>October 27, 2023 @ 1:31pm</t>
         </is>
       </c>
-      <c r="U50" s="5" t="inlineStr">
+      <c r="V50" s="5" t="inlineStr">
         <is>
           <t>November 10, 2023 @ 1:31pm</t>
         </is>
       </c>
-      <c r="V50" s="5" t="inlineStr">
+      <c r="W50" s="5" t="inlineStr">
         <is>
           <t>November 30, 2023</t>
         </is>
       </c>
-      <c r="W50" s="5" t="inlineStr">
+      <c r="X50" s="5" t="inlineStr">
         <is>
           <t>December 20, 2023</t>
         </is>
       </c>
-      <c r="X50" s="5" t="inlineStr">
+      <c r="Y50" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="7" t="n"/>
+      <c r="Z50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="5" t="n">
+        <v>376</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="E51" s="5" t="n">
         <v>305090</v>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Mataragan NAS</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>MALIBCONG</t>
         </is>
       </c>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H51" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="L51" s="5" t="n">
         <v>9889180.890000001</v>
       </c>
-      <c r="L51" s="5" t="n">
+      <c r="M51" s="5" t="n">
         <v>9770516.9</v>
       </c>
-      <c r="M51" s="5" t="inlineStr">
+      <c r="N51" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="5" t="inlineStr">
+      <c r="O51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="5" t="inlineStr">
         <is>
           <t>May 13, 2025</t>
         </is>
       </c>
-      <c r="P51" s="5" t="inlineStr">
+      <c r="Q51" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">May  17, 2025
  </t>
         </is>
       </c>
-      <c r="Q51" s="5" t="inlineStr">
+      <c r="R51" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-005</t>
         </is>
       </c>
-      <c r="R51" s="5" t="inlineStr">
+      <c r="S51" s="5" t="inlineStr">
         <is>
           <t>2024-07-011</t>
         </is>
       </c>
-      <c r="S51" s="5" t="inlineStr">
+      <c r="T51" s="5" t="inlineStr">
         <is>
           <t>June15, 2024</t>
         </is>
       </c>
-      <c r="T51" s="5" t="inlineStr">
+      <c r="U51" s="5" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U51" s="5" t="inlineStr">
+      <c r="V51" s="5" t="inlineStr">
         <is>
           <t>July 03, 2024</t>
         </is>
       </c>
-      <c r="V51" s="5" t="inlineStr">
+      <c r="W51" s="5" t="inlineStr">
         <is>
           <t>July 12, 2024</t>
         </is>
       </c>
-      <c r="W51" s="5" t="inlineStr">
+      <c r="X51" s="5" t="inlineStr">
         <is>
           <t>September 3, 2024</t>
         </is>
       </c>
-      <c r="X51" s="5" t="inlineStr">
+      <c r="Y51" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y51" s="5" t="inlineStr"/>
-      <c r="Z51" s="7" t="n"/>
+      <c r="Z51" s="5" t="inlineStr"/>
+      <c r="AA51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="5" t="n">
+        <v>377</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="E52" s="5" t="n">
         <v>305104</v>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>Tineg National High School</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>TINEG</t>
         </is>
       </c>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H52" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="L52" s="5" t="n">
         <v>9742716.24</v>
       </c>
-      <c r="L52" s="5" t="n">
+      <c r="M52" s="5" t="n">
         <v>9626000.220000001</v>
       </c>
-      <c r="M52" s="5" t="inlineStr">
+      <c r="N52" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N52" s="5" t="n">
+      <c r="O52" s="5" t="n">
         <v>0.796</v>
       </c>
-      <c r="O52" s="5" t="inlineStr">
+      <c r="P52" s="5" t="inlineStr">
         <is>
           <t>May 13, 2025</t>
         </is>
       </c>
-      <c r="P52" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q52" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R52" s="5" t="inlineStr">
+        <is>
           <t>CAR-ABRA-2024-04-005</t>
         </is>
       </c>
-      <c r="R52" s="5" t="inlineStr">
+      <c r="S52" s="5" t="inlineStr">
         <is>
           <t>2024-07-011</t>
         </is>
       </c>
-      <c r="S52" s="5" t="inlineStr">
+      <c r="T52" s="5" t="inlineStr">
         <is>
           <t>June15, 2024</t>
         </is>
       </c>
-      <c r="T52" s="5" t="inlineStr">
+      <c r="U52" s="5" t="inlineStr">
         <is>
           <t>June 21, 2024</t>
         </is>
       </c>
-      <c r="U52" s="5" t="inlineStr">
+      <c r="V52" s="5" t="inlineStr">
         <is>
           <t>July 03, 2024</t>
         </is>
       </c>
-      <c r="V52" s="5" t="inlineStr">
+      <c r="W52" s="5" t="inlineStr">
         <is>
           <t>July 12, 2024</t>
         </is>
       </c>
-      <c r="W52" s="5" t="inlineStr">
+      <c r="X52" s="5" t="inlineStr">
         <is>
           <t>September 3, 2024</t>
         </is>
       </c>
-      <c r="X52" s="5" t="inlineStr">
+      <c r="Y52" s="5" t="inlineStr">
         <is>
           <t>SEMBRI CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y52" s="5" t="inlineStr">
+      <c r="Z52" s="5" t="inlineStr">
         <is>
           <t>suspended due to inaccesibility of roads</t>
         </is>
       </c>
-      <c r="Z52" s="7" t="n"/>
+      <c r="AA52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="A53" s="5" t="n">
+        <v>378</v>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="E53" s="5" t="n">
         <v>135242</v>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>Namaltugan ES</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>CALANASAN (BAYAG)</t>
         </is>
       </c>
-      <c r="G53" s="5" t="inlineStr">
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H53" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="K53" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="L53" s="5" t="n">
         <v>12848533.6</v>
       </c>
-      <c r="L53" s="5" t="n">
+      <c r="M53" s="5" t="n">
         <v>11097515.65</v>
       </c>
-      <c r="M53" s="5" t="inlineStr">
+      <c r="N53" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5" t="inlineStr">
+      <c r="O53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5" t="inlineStr">
         <is>
           <t>January 22,2025</t>
         </is>
       </c>
-      <c r="P53" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q53" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R53" s="5" t="inlineStr">
+        <is>
           <t>LMS-2024-002</t>
         </is>
       </c>
-      <c r="R53" s="5" t="inlineStr"/>
-      <c r="S53" s="5" t="inlineStr">
+      <c r="S53" s="5" t="inlineStr"/>
+      <c r="T53" s="5" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
         </is>
       </c>
-      <c r="T53" s="5" t="inlineStr">
+      <c r="U53" s="5" t="inlineStr">
         <is>
           <t>January 5,2024</t>
         </is>
       </c>
-      <c r="U53" s="5" t="inlineStr">
+      <c r="V53" s="5" t="inlineStr">
         <is>
           <t>January 22,2024</t>
         </is>
       </c>
-      <c r="V53" s="5" t="inlineStr">
+      <c r="W53" s="5" t="inlineStr">
         <is>
           <t>February 7,2024</t>
         </is>
       </c>
-      <c r="W53" s="5" t="inlineStr">
+      <c r="X53" s="5" t="inlineStr">
         <is>
           <t>June 17,2024</t>
         </is>
       </c>
-      <c r="X53" s="5" t="inlineStr">
+      <c r="Y53" s="5" t="inlineStr">
         <is>
           <t>J.G. Yacas Construction,Supply and Equipment Rentals</t>
         </is>
       </c>
-      <c r="Y53" s="5" t="inlineStr">
+      <c r="Z53" s="5" t="inlineStr">
         <is>
           <t>ongoing correction of punchlist</t>
         </is>
       </c>
-      <c r="Z53" s="7" t="n"/>
+      <c r="AA53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="5" t="n">
+        <v>379</v>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>Apayao</t>
         </is>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="E54" s="5" t="n">
         <v>135257</v>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Caglayan ES</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>CONNER</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H54" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="L54" s="5" t="n">
         <v>11380362.07</v>
       </c>
-      <c r="L54" s="5" t="n">
+      <c r="M54" s="5" t="n">
         <v>12529250.6</v>
       </c>
-      <c r="M54" s="5" t="inlineStr">
+      <c r="N54" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" s="5" t="inlineStr">
+      <c r="O54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5" t="inlineStr">
         <is>
           <t>January 17,2025</t>
         </is>
       </c>
-      <c r="P54" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q54" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R54" s="5" t="inlineStr">
+        <is>
           <t>LMS-2024-001</t>
         </is>
       </c>
-      <c r="R54" s="5" t="inlineStr"/>
-      <c r="S54" s="5" t="inlineStr">
+      <c r="S54" s="5" t="inlineStr"/>
+      <c r="T54" s="5" t="inlineStr">
         <is>
           <t>Dec 28,2023</t>
         </is>
       </c>
-      <c r="T54" s="5" t="inlineStr">
+      <c r="U54" s="5" t="inlineStr">
         <is>
           <t>January 5,2024</t>
         </is>
       </c>
-      <c r="U54" s="5" t="inlineStr">
+      <c r="V54" s="5" t="inlineStr">
         <is>
           <t>January 22,2024</t>
         </is>
       </c>
-      <c r="V54" s="5" t="inlineStr">
+      <c r="W54" s="5" t="inlineStr">
         <is>
           <t>February 7,2024</t>
         </is>
       </c>
-      <c r="W54" s="5" t="inlineStr">
+      <c r="X54" s="5" t="inlineStr">
         <is>
           <t>June 17,2024</t>
         </is>
       </c>
-      <c r="X54" s="5" t="inlineStr">
+      <c r="Y54" s="5" t="inlineStr">
         <is>
           <t>J.G. Yacas Construction,Supply and Equipment Rentals</t>
         </is>
       </c>
-      <c r="Y54" s="5" t="inlineStr">
+      <c r="Z54" s="5" t="inlineStr">
         <is>
           <t>ongoing correction of punchlist</t>
         </is>
       </c>
-      <c r="Z54" s="7" t="n"/>
+      <c r="AA54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="5" t="n">
+        <v>380</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="E55" s="5" t="n">
         <v>135684</v>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Yabyabuan MG School</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>SABLAN</t>
         </is>
       </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H55" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND SITE DEVELOPMENT</t>
         </is>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="L55" s="5" t="n">
         <v>18336389.21</v>
       </c>
-      <c r="L55" s="5" t="n">
+      <c r="M55" s="5" t="n">
         <v>17444882.84</v>
       </c>
-      <c r="M55" s="5" t="inlineStr">
+      <c r="N55" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" s="6" t="n">
+      <c r="O55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="6" t="n">
         <v>45679</v>
       </c>
-      <c r="P55" s="6" t="n">
+      <c r="Q55" s="6" t="n">
         <v>45672</v>
       </c>
-      <c r="Q55" s="5" t="inlineStr">
+      <c r="R55" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-02</t>
         </is>
       </c>
-      <c r="R55" s="5" t="inlineStr">
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-02</t>
         </is>
       </c>
-      <c r="S55" s="6" t="n">
+      <c r="T55" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T55" s="6" t="n">
+      <c r="U55" s="6" t="n">
         <v>45273</v>
       </c>
-      <c r="U55" s="6" t="n">
+      <c r="V55" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="V55" s="6" t="n">
+      <c r="W55" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="W55" s="6" t="n">
+      <c r="X55" s="6" t="n">
         <v>45439</v>
       </c>
-      <c r="X55" s="5" t="inlineStr">
+      <c r="Y55" s="5" t="inlineStr">
         <is>
           <t>MANIMELDS CONSTRUCTION AND IRON WORKS</t>
         </is>
       </c>
-      <c r="Y55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="7" t="n"/>
+      <c r="Z55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="5" t="n">
+        <v>381</v>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="E56" s="5" t="n">
         <v>135685</v>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>Andolor ES</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>TUBA</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H56" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND SITE DEVELOPMENT</t>
         </is>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="L56" s="5" t="n">
         <v>15677245.35</v>
       </c>
-      <c r="L56" s="5" t="n">
+      <c r="M56" s="5" t="n">
         <v>14458792.44</v>
       </c>
-      <c r="M56" s="5" t="inlineStr">
+      <c r="N56" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" s="6" t="n">
+      <c r="O56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="6" t="n">
         <v>45673</v>
       </c>
-      <c r="P56" s="6" t="n">
+      <c r="Q56" s="6" t="n">
         <v>45667</v>
       </c>
-      <c r="Q56" s="5" t="inlineStr">
+      <c r="R56" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-01</t>
         </is>
       </c>
-      <c r="R56" s="5" t="inlineStr">
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>LMS-2024-01</t>
         </is>
       </c>
-      <c r="S56" s="6" t="n">
+      <c r="T56" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T56" s="6" t="n">
+      <c r="U56" s="6" t="n">
         <v>45273</v>
       </c>
-      <c r="U56" s="6" t="n">
+      <c r="V56" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="V56" s="6" t="n">
+      <c r="W56" s="6" t="n">
         <v>45329</v>
       </c>
-      <c r="W56" s="6" t="n">
+      <c r="X56" s="6" t="n">
         <v>45433</v>
       </c>
-      <c r="X56" s="5" t="inlineStr">
+      <c r="Y56" s="5" t="inlineStr">
         <is>
           <t>KAIT BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="7" t="n"/>
+      <c r="Z56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="5" t="n">
+        <v>382</v>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="E57" s="5" t="n">
         <v>135753</v>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>Halag E/S - Halag 3 (Riverside)</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>AGUINALDO</t>
         </is>
       </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H57" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY TWO (2)  (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, WATER SYSTEM, SLOPE PROTECTION AND PERIMETER FENCE (ONE BAY=3.0M)</t>
         </is>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="L57" s="5" t="n">
         <v>16279751.9</v>
       </c>
-      <c r="L57" s="5" t="n">
+      <c r="M57" s="5" t="n">
         <v>15802017.06</v>
       </c>
-      <c r="M57" s="5" t="inlineStr">
+      <c r="N57" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N57" s="5" t="n">
+      <c r="O57" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="O57" s="6" t="n">
+      <c r="P57" s="6" t="n">
         <v>45814</v>
       </c>
-      <c r="P57" s="6" t="n">
+      <c r="Q57" s="6" t="n">
         <v>45810</v>
       </c>
-      <c r="Q57" s="5" t="inlineStr"/>
-      <c r="R57" s="5" t="inlineStr">
+      <c r="R57" s="5" t="inlineStr"/>
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="S57" s="6" t="n">
+      <c r="T57" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="T57" s="6" t="n">
+      <c r="U57" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="U57" s="6" t="n">
+      <c r="V57" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V57" s="6" t="n">
+      <c r="W57" s="6" t="n">
         <v>45293</v>
       </c>
-      <c r="W57" s="6" t="n">
+      <c r="X57" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="X57" s="5" t="inlineStr">
+      <c r="Y57" s="5" t="inlineStr">
         <is>
           <t>MR-G Construction</t>
         </is>
       </c>
-      <c r="Y57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="7" t="n"/>
+      <c r="Z57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="A58" s="5" t="n">
+        <v>383</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="D58" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="E58" s="5" t="n">
         <v>135912</v>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Pulaan PS</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>LAMUT</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
+      <c r="H58" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H58" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J58" s="5" t="inlineStr">
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY FOUR (4)  (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, WATER SYSTEM,CONCRETE PAVEMENT AND PERIMETER FENCE (ONE BAY=3.0M)</t>
         </is>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="L58" s="5" t="n">
         <v>18781299.1</v>
       </c>
-      <c r="L58" s="5" t="n">
+      <c r="M58" s="5" t="n">
         <v>17620179.52</v>
       </c>
-      <c r="M58" s="5" t="inlineStr">
+      <c r="N58" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N58" s="5" t="n">
+      <c r="O58" s="5" t="n">
         <v>0.73</v>
       </c>
-      <c r="O58" s="6" t="n">
+      <c r="P58" s="6" t="n">
         <v>45814</v>
       </c>
-      <c r="P58" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q58" s="5" t="inlineStr"/>
-      <c r="R58" s="5" t="inlineStr">
+      <c r="Q58" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R58" s="5" t="inlineStr"/>
+      <c r="S58" s="5" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="S58" s="6" t="n">
+      <c r="T58" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="T58" s="6" t="n">
+      <c r="U58" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="U58" s="6" t="n">
+      <c r="V58" s="6" t="n">
         <v>45278</v>
       </c>
-      <c r="V58" s="6" t="n">
+      <c r="W58" s="6" t="n">
         <v>45309</v>
       </c>
-      <c r="W58" s="6" t="n">
+      <c r="X58" s="6" t="n">
         <v>45443</v>
       </c>
-      <c r="X58" s="5" t="inlineStr">
+      <c r="Y58" s="5" t="inlineStr">
         <is>
           <t>Al Muhandis Construction</t>
         </is>
       </c>
-      <c r="Y58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="7" t="n"/>
+      <c r="Z58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="5" t="n">
+        <v>384</v>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="E59" s="5" t="n">
         <v>136052</v>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Taggay Elementary School</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>PINUKPUK</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H59" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, WATER SYSTEM AND SITE LEVELING/IMPROVEMENT</t>
         </is>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="L59" s="5" t="n">
         <v>17317546.86</v>
       </c>
-      <c r="L59" s="5" t="n">
+      <c r="M59" s="5" t="n">
         <v>16893904.27</v>
       </c>
-      <c r="M59" s="5" t="inlineStr">
+      <c r="N59" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N59" s="5" t="n">
+      <c r="O59" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O59" s="5" t="inlineStr">
+      <c r="P59" s="5" t="inlineStr">
         <is>
           <t>March 19, 2025</t>
         </is>
       </c>
-      <c r="P59" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q59" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R59" s="5" t="inlineStr">
+        <is>
           <t>LMS 2024-CAR-KALINA-001</t>
         </is>
       </c>
-      <c r="R59" s="5" t="inlineStr">
+      <c r="S59" s="5" t="inlineStr">
         <is>
           <t>LMS 2024-CAR-KALINA-001</t>
         </is>
       </c>
-      <c r="S59" s="5" t="inlineStr">
+      <c r="T59" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="T59" s="5" t="inlineStr">
+      <c r="U59" s="5" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="U59" s="5" t="inlineStr">
+      <c r="V59" s="5" t="inlineStr">
         <is>
           <t>December 19, 2023</t>
         </is>
       </c>
-      <c r="V59" s="5" t="inlineStr">
+      <c r="W59" s="5" t="inlineStr">
         <is>
           <t>February 5, 2024</t>
         </is>
       </c>
-      <c r="W59" s="5" t="inlineStr">
+      <c r="X59" s="5" t="inlineStr">
         <is>
           <t>August 14, 2024</t>
         </is>
       </c>
-      <c r="X59" s="5" t="inlineStr">
+      <c r="Y59" s="5" t="inlineStr">
         <is>
           <t>Mighty Stellar Development Construction</t>
         </is>
       </c>
-      <c r="Y59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="7" t="n"/>
+      <c r="Z59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="7" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="5" t="n">
+        <v>385</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>Kalinga</t>
         </is>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="E60" s="5" t="n">
         <v>136064</v>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Liwan West Annex (Alibangbang PS)</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>RIZAL (LIWAN)</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr">
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H60" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J60" s="5" t="inlineStr">
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH OUT TOILET) WITH PROVISION OF WATER AND SANITATION FACILITIES (4-SEATER), SCHOOL FURNITURE, SOLAR ENERGY SYSTEM AND PEREMETER FENCE </t>
         </is>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="L60" s="5" t="n">
         <v>19599915.89</v>
       </c>
-      <c r="L60" s="5" t="n">
+      <c r="M60" s="5" t="n">
         <v>19115517.14</v>
       </c>
-      <c r="M60" s="5" t="inlineStr">
+      <c r="N60" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N60" s="5" t="n">
+      <c r="O60" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O60" s="5" t="inlineStr">
+      <c r="P60" s="5" t="inlineStr">
         <is>
           <t>April 7, 2025</t>
         </is>
       </c>
-      <c r="P60" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q60" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R60" s="5" t="inlineStr">
+        <is>
           <t>LMS 2024-CAR-KALINA-002</t>
         </is>
       </c>
-      <c r="R60" s="5" t="inlineStr">
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>LMS 2024-CAR-KALINA-002</t>
         </is>
       </c>
-      <c r="S60" s="5" t="inlineStr">
+      <c r="T60" s="5" t="inlineStr">
         <is>
           <t>November 24, 2023</t>
         </is>
       </c>
-      <c r="T60" s="5" t="inlineStr">
+      <c r="U60" s="5" t="inlineStr">
         <is>
           <t>December 5, 2023</t>
         </is>
       </c>
-      <c r="U60" s="5" t="inlineStr">
+      <c r="V60" s="5" t="inlineStr">
         <is>
           <t>December 19, 2023</t>
         </is>
       </c>
-      <c r="V60" s="5" t="inlineStr">
+      <c r="W60" s="5" t="inlineStr">
         <is>
           <t>January 30, 2024</t>
         </is>
       </c>
-      <c r="W60" s="5" t="inlineStr">
+      <c r="X60" s="5" t="inlineStr">
         <is>
           <t>August 18, 2024</t>
         </is>
       </c>
-      <c r="X60" s="5" t="inlineStr">
+      <c r="Y60" s="5" t="inlineStr">
         <is>
           <t>CNL Construction</t>
         </is>
       </c>
-      <c r="Y60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="7" t="n"/>
+      <c r="Z60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="A61" s="5" t="n">
+        <v>386</v>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="E61" s="5" t="n">
         <v>136308</v>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Natta'longan Elementary School</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>PARACELIS</t>
         </is>
       </c>
-      <c r="G61" s="5" t="inlineStr">
+      <c r="H61" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H61" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J61" s="5" t="inlineStr">
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (ELEVATED) (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="L61" s="5" t="n">
         <v>50525998.85</v>
       </c>
-      <c r="L61" s="5" t="n">
+      <c r="M61" s="5" t="n">
         <v>49519489.88</v>
       </c>
-      <c r="M61" s="5" t="inlineStr">
+      <c r="N61" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N61" s="5" t="n">
+      <c r="O61" s="5" t="n">
         <v>0.76</v>
       </c>
-      <c r="O61" s="6" t="n">
+      <c r="P61" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="P61" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q61" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R61" s="5" t="inlineStr">
+        <is>
           <t>INFRA-2023 -007</t>
         </is>
       </c>
-      <c r="R61" s="5" t="inlineStr">
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023 -007</t>
         </is>
       </c>
-      <c r="S61" s="5" t="inlineStr">
+      <c r="T61" s="5" t="inlineStr">
         <is>
           <t>November 25, 2023</t>
         </is>
       </c>
-      <c r="T61" s="5" t="inlineStr">
+      <c r="U61" s="5" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="U61" s="5" t="inlineStr">
+      <c r="V61" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="V61" s="5" t="inlineStr">
+      <c r="W61" s="5" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W61" s="6" t="n">
+      <c r="X61" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="X61" s="5" t="inlineStr">
+      <c r="Y61" s="5" t="inlineStr">
         <is>
           <t>APO General Construction</t>
         </is>
       </c>
-      <c r="Y61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="7" t="n"/>
+      <c r="Z61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+      <c r="A62" s="5" t="n">
+        <v>387</v>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="E62" s="5" t="n">
         <v>136331</v>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>Tambingan Elementary School</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>SABANGAN</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr">
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H62" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J62" s="5" t="inlineStr">
+      <c r="K62" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 2 UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="L62" s="5" t="n">
         <v>51045855.22</v>
       </c>
-      <c r="L62" s="5" t="n">
+      <c r="M62" s="5" t="n">
         <v>50030042.7</v>
       </c>
-      <c r="M62" s="5" t="inlineStr">
+      <c r="N62" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N62" s="5" t="n">
+      <c r="O62" s="5" t="n">
         <v>0.82</v>
       </c>
-      <c r="O62" s="6" t="n">
+      <c r="P62" s="6" t="n">
         <v>45808</v>
       </c>
-      <c r="P62" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q62" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R62" s="5" t="inlineStr">
+        <is>
           <t>INFRA-2023 -008</t>
         </is>
       </c>
-      <c r="R62" s="5" t="inlineStr">
+      <c r="S62" s="5" t="inlineStr">
         <is>
           <t>INFRA-2023 -008</t>
         </is>
       </c>
-      <c r="S62" s="5" t="inlineStr">
+      <c r="T62" s="5" t="inlineStr">
         <is>
           <t>November 25, 2023</t>
         </is>
       </c>
-      <c r="T62" s="5" t="inlineStr">
+      <c r="U62" s="5" t="inlineStr">
         <is>
           <t>December 4, 2023</t>
         </is>
       </c>
-      <c r="U62" s="5" t="inlineStr">
+      <c r="V62" s="5" t="inlineStr">
         <is>
           <t>December 18, 2023</t>
         </is>
       </c>
-      <c r="V62" s="5" t="inlineStr">
+      <c r="W62" s="5" t="inlineStr">
         <is>
           <t>December 27, 2023</t>
         </is>
       </c>
-      <c r="W62" s="6" t="n">
+      <c r="X62" s="6" t="n">
         <v>45478</v>
       </c>
-      <c r="X62" s="5" t="inlineStr">
+      <c r="Y62" s="5" t="inlineStr">
         <is>
           <t>FB Bantales Eng'g &amp; Const'n</t>
         </is>
       </c>
-      <c r="Y62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="7" t="n"/>
+      <c r="Z62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+      <c r="A63" s="5" t="n">
+        <v>388</v>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="D63" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="E63" s="5" t="n">
         <v>220525</v>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>BURAYUKAN ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G63" s="5" t="inlineStr">
+      <c r="H63" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H63" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J63" s="5" t="inlineStr">
+      <c r="K63" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE, SlOPE PROTECTION, SCHOOL GATE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="L63" s="5" t="n">
         <v>26997429.04</v>
       </c>
-      <c r="L63" s="5" t="n">
+      <c r="M63" s="5" t="n">
         <v>26751878.94</v>
       </c>
-      <c r="M63" s="5" t="inlineStr">
+      <c r="N63" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" s="5" t="inlineStr">
+      <c r="O63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="5" t="inlineStr">
         <is>
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P63" s="6" t="n">
+      <c r="Q63" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="Q63" s="5" t="inlineStr">
+      <c r="R63" s="5" t="inlineStr">
         <is>
           <t>I-2023-4</t>
         </is>
       </c>
-      <c r="R63" s="5" t="inlineStr">
+      <c r="S63" s="5" t="inlineStr">
         <is>
           <t>I-2023-4</t>
         </is>
       </c>
-      <c r="S63" s="5" t="inlineStr">
+      <c r="T63" s="5" t="inlineStr">
         <is>
           <t>December 2 - December 21, 2023</t>
         </is>
       </c>
-      <c r="T63" s="5" t="inlineStr">
+      <c r="U63" s="5" t="inlineStr">
         <is>
           <t>December 8, 2023 @ 8:00pm</t>
         </is>
       </c>
-      <c r="U63" s="5" t="inlineStr">
+      <c r="V63" s="5" t="inlineStr">
         <is>
           <t>December 21, 2023 @ 10:00am</t>
         </is>
       </c>
-      <c r="V63" s="5" t="inlineStr">
+      <c r="W63" s="5" t="inlineStr">
         <is>
           <t>January 22, 2024</t>
         </is>
       </c>
-      <c r="W63" s="5" t="inlineStr">
+      <c r="X63" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X63" s="5" t="inlineStr">
+      <c r="Y63" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="7" t="n"/>
+      <c r="Z63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+      <c r="A64" s="5" t="n">
+        <v>389</v>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="D64" s="5" t="inlineStr">
         <is>
           <t>Tabuk City</t>
         </is>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="E64" s="5" t="n">
         <v>136111</v>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>SOTTO ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>CITY OF TABUK (Capital)</t>
         </is>
       </c>
-      <c r="G64" s="5" t="inlineStr">
+      <c r="H64" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H64" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J64" s="5" t="inlineStr">
+      <c r="K64" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE, SlOPE PROTECTION, SCHOOL GATE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="L64" s="5" t="n">
         <v>24327074.03</v>
       </c>
-      <c r="L64" s="5" t="n">
+      <c r="M64" s="5" t="n">
         <v>24078626.44</v>
       </c>
-      <c r="M64" s="5" t="inlineStr">
+      <c r="N64" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" s="5" t="inlineStr">
+      <c r="O64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="5" t="inlineStr">
         <is>
           <t>February 9 ,2025</t>
         </is>
       </c>
-      <c r="P64" s="6" t="n">
+      <c r="Q64" s="6" t="n">
         <v>45597</v>
       </c>
-      <c r="Q64" s="5" t="inlineStr">
+      <c r="R64" s="5" t="inlineStr">
         <is>
           <t>I-2024-I</t>
         </is>
       </c>
-      <c r="R64" s="5" t="inlineStr">
+      <c r="S64" s="5" t="inlineStr">
         <is>
           <t>I-2024-I</t>
         </is>
       </c>
-      <c r="S64" s="5" t="inlineStr">
+      <c r="T64" s="5" t="inlineStr">
         <is>
           <t>January 3 - January 22, 2024</t>
         </is>
       </c>
-      <c r="T64" s="5" t="inlineStr">
+      <c r="U64" s="5" t="inlineStr">
         <is>
           <t>January 10, 2024 @ 10:00am</t>
         </is>
       </c>
-      <c r="U64" s="5" t="inlineStr">
+      <c r="V64" s="5" t="inlineStr">
         <is>
           <t>January 22, 2024 @ 1:00pm</t>
         </is>
       </c>
-      <c r="V64" s="5" t="inlineStr">
+      <c r="W64" s="5" t="inlineStr">
         <is>
           <t>January 26, 2024</t>
         </is>
       </c>
-      <c r="W64" s="5" t="inlineStr">
+      <c r="X64" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X64" s="5" t="inlineStr">
+      <c r="Y64" s="5" t="inlineStr">
         <is>
           <t>Bangyan 3D Construction</t>
         </is>
       </c>
-      <c r="Y64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="7" t="n"/>
+      <c r="Z64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
